--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -11,7 +11,11 @@
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="nota" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="1-Gananicia con feedback" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="2-impEnt" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="3-impSal" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Recup 2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Recup 3" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="positivos" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="217">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -280,10 +284,40 @@
     <t xml:space="preserve">lucianovel31@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Nro</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-ganancia</t>
   </si>
   <si>
-    <t xml:space="preserve">recup</t>
+    <t xml:space="preserve">Recup 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-imp de entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- imp de sal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 3 mas positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">premiados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valoracion peda</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo requerido</t>
@@ -377,16 +411,284 @@
   </si>
   <si>
     <t xml:space="preserve">5 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 27 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 44 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 13 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  20:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  20:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  19:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  15:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  19:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  23:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  20:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  19:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  22:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  20:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  20:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  15:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  15:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correcciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total corregido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -473,7 +775,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,7 +783,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,6 +796,92 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B10:B26 B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -922,252 +1310,938 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:C47"/>
+  <dimension ref="A9:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="0" t="s">
         <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">ROUND(I10/2+G10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <f aca="false">IF(L10&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">I11/2+G11</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <f aca="false">IF(L11&gt;6,"TEA","TEP")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">I12/2+G12</f>
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
+        <v>6</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">I13/2+G13</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">I14/2+G14</f>
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">I15/2+G15</f>
+        <v>7</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
+        <v>5</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <f aca="false">IF(L15&gt;6,"TEA","TEP")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">I16/2+G16</f>
+        <v>9.5</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">I17/2+G17</f>
+        <v>11</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M17" s="0" t="str">
+        <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">I18/2+G18</f>
+        <v>15.5</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
+        <v>11</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="C19" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">I19/2+G19</f>
+        <v>9</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
+        <v>7</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="C20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">I20/2+G20</f>
+        <v>13.5</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
+        <v>11</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>45782</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">I21/2+G21</f>
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <f aca="false">IF(L21&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">I22/2+G22</f>
+        <v>26.5</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
+        <v>15</v>
+      </c>
+      <c r="M22" s="0" t="str">
+        <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">I23/2+G23</f>
+        <v>17</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
+        <v>11</v>
+      </c>
+      <c r="M23" s="0" t="str">
+        <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="C24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">I24/2+G24</f>
+        <v>9.5</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <f aca="false">IF(L24&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">I25/2+G25</f>
+        <v>7.5</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M25" s="0" t="str">
+        <f aca="false">IF(L25&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">I26/2+G26</f>
+        <v>9.5</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="0" t="str">
+        <f aca="false">IF(L26&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="C27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">I27/2+G27</f>
+        <v>9</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M27" s="0" t="str">
+        <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="C28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">I28/2+G28</f>
+        <v>10</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="0" t="str">
+        <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">I29/2+G29</f>
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="str">
+        <f aca="false">IF(L29&gt;6,"TEA","TEP")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">I30/2+G30</f>
+        <v>9.5</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M30" s="0" t="str">
+        <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="C31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">I31/2+G31</f>
+        <v>12.5</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
+        <v>11</v>
+      </c>
+      <c r="M31" s="0" t="str">
+        <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">I32/2+G32</f>
+        <v>30.5</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
+        <v>17</v>
+      </c>
+      <c r="M32" s="0" t="str">
+        <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">I33/2+G33</f>
+        <v>30.5</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
+        <v>15</v>
+      </c>
+      <c r="M33" s="0" t="str">
+        <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">I34/2+G34</f>
+        <v>9.5</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M34" s="0" t="str">
+        <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">I35/2+G35</f>
+        <v>5</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C35,E35,J35),0)</f>
+        <v>5</v>
+      </c>
+      <c r="M35" s="0" t="str">
+        <f aca="false">IF(L35&gt;6,"TEA","TEP")</f>
+        <v>TEP</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="L10:L35">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M35">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1185,11 +2259,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="B10:B26 H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -1202,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -1259,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -1279,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -1299,7 +2373,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -1330,7 +2404,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -1350,7 +2424,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -1370,7 +2444,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -1390,7 +2464,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -1410,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -1441,7 +2515,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -1461,7 +2535,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -1481,7 +2555,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -1501,7 +2575,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -1521,7 +2595,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -1541,7 +2615,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -1561,7 +2635,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -1586,7 +2660,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -1614,7 +2688,7 @@
         <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -1639,7 +2713,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -1653,7 +2727,7 @@
         <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -1667,7 +2741,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -1684,7 +2758,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -1704,7 +2778,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -1724,7 +2798,7 @@
         <v>76</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -1749,7 +2823,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
@@ -1764,7 +2838,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -1781,7 +2855,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -1801,7 +2875,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -1827,14 +2901,2459 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B10:B26 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D5)</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">MAX(F4,E4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">AVERAGE(D11:D15)</f>
+        <v>6.4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">MAX(F11,E11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">AVERAGE(D18:D19)</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">MAX(F18,E18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">AVERAGE(D21:D24)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">MAX(F21,E21)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">AVERAGE(D34:D40)</f>
+        <v>9.14285714285714</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">ROUND(MAX(F34,E34),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">AVERAGE(D7:D15)</f>
+        <v>6.33333333333333</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">MAX(F7,E7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">AVERAGE(D19:D24)</f>
+        <v>4.83333333333333</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">MAX(F19,E19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">AVERAGE(D25:D26)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">ROUND(MAX(F25,E25),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">AVERAGE(D28:D31)</f>
+        <v>7</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">MAX(F28,E28)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">AVERAGE(D32:D35)</f>
+        <v>4.75</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">ROUND(MAX(F32,E32),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">AVERAGE(D37:D40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">MAX(F37,E37)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">AVERAGE(D46:D47)</f>
+        <v>9</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">MAX(F46,E46)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">ROUND(MAX(F3,E3),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">AVERAGE(D9:D12)</f>
+        <v>5.9375</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">ROUND(MAX(F9,E9),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D5)</f>
+        <v>7.08333333333333</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">ROUND(MAX(F3,E3),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">SUM(C2:F2)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">G2+H2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">SUM(C3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">G3+H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">SUM(C4:F4)</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">G4+H4</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">SUM(C5:F5)</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">G5+H5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">SUM(C6:F6)</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">G6+H6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">SUM(C7:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">G7+H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">SUM(C8:F8)</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">G8+H8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">SUM(C9:F9)</f>
+        <v>6</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">G9+H9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">SUM(C10:F10)</f>
+        <v>13</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">G10+H10</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">SUM(C11:F11)</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">G11+H11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">SUM(C12:F12)</f>
+        <v>11</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">G12+H12</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">SUM(C13:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">G13+H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">SUM(C14:F14)</f>
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">G14+H14</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">SUM(C15:F15)</f>
+        <v>12</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">G15+H15</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">SUM(C16:F16)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">G16+H16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">SUM(C17:F17)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">G17+H17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">SUM(C18:F18)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">G18+H18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">SUM(C19:F19)</f>
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">G19+H19</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(C20:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">G20+H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(C21:F21)</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">G21+H21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">SUM(C22:F22)</f>
+        <v>5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">G22+H22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(C23:F23)</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">G23+H23</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">SUM(C24:F24)</f>
+        <v>29</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">G24+H24</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">SUM(C25:F25)</f>
+        <v>22</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">G25+H25</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">SUM(C26:F26)</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">G26+H26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">G27+H27</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="218">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarde 14:10</t>
   </si>
   <si>
     <t xml:space="preserve">Hector Hernan</t>
@@ -762,7 +765,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -772,6 +775,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -796,7 +803,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -805,21 +812,6 @@
         <color rgb="FFCC0000"/>
         <sz val="12"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -890,13 +882,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -920,6 +912,9 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="n">
+        <v>45791</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -934,6 +929,9 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -946,6 +944,9 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -962,6 +963,9 @@
       <c r="D4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -979,6 +983,9 @@
       <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -993,6 +1000,9 @@
       <c r="D6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1007,291 +1017,361 @@
       <c r="D7" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="n">
         <f aca="false">COUNTIF(D2:D27,"p")</f>
         <v>24</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F27,"p")</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1312,11 +1392,11 @@
   </sheetPr>
   <dimension ref="A9:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="F28 L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -1327,43 +1407,43 @@
   <sheetData>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1473,7 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>9</v>
       </c>
-      <c r="M10" s="0" t="str">
+      <c r="M10" s="4" t="str">
         <f aca="false">IF(L10&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1408,13 +1488,13 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -1431,7 +1511,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="0" t="str">
+      <c r="M11" s="4" t="str">
         <f aca="false">IF(L11&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -1463,7 +1543,7 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>6</v>
       </c>
-      <c r="M12" s="0" t="str">
+      <c r="M12" s="4" t="str">
         <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -1495,7 +1575,7 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>9</v>
       </c>
-      <c r="M13" s="0" t="str">
+      <c r="M13" s="4" t="str">
         <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1527,7 +1607,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>9</v>
       </c>
-      <c r="M14" s="0" t="str">
+      <c r="M14" s="4" t="str">
         <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1559,7 +1639,7 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="0" t="str">
+      <c r="M15" s="4" t="str">
         <f aca="false">IF(L15&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -1569,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -1591,7 +1671,7 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>10</v>
       </c>
-      <c r="M16" s="0" t="str">
+      <c r="M16" s="4" t="str">
         <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1601,18 +1681,18 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -1629,7 +1709,7 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>9</v>
       </c>
-      <c r="M17" s="0" t="str">
+      <c r="M17" s="4" t="str">
         <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1639,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -1661,7 +1741,7 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>11</v>
       </c>
-      <c r="M18" s="0" t="str">
+      <c r="M18" s="4" t="str">
         <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1671,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -1693,7 +1773,7 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="M19" s="0" t="str">
+      <c r="M19" s="4" t="str">
         <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1703,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9</v>
@@ -1725,7 +1805,7 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>11</v>
       </c>
-      <c r="M20" s="0" t="str">
+      <c r="M20" s="4" t="str">
         <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1735,15 +1815,15 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="n">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -1763,7 +1843,7 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>8</v>
       </c>
-      <c r="M21" s="0" t="str">
+      <c r="M21" s="4" t="str">
         <f aca="false">IF(L21&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1773,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -1795,7 +1875,7 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>15</v>
       </c>
-      <c r="M22" s="0" t="str">
+      <c r="M22" s="4" t="str">
         <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1805,7 +1885,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -1830,7 +1910,7 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
         <v>11</v>
       </c>
-      <c r="M23" s="0" t="str">
+      <c r="M23" s="4" t="str">
         <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1840,7 +1920,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>8</v>
@@ -1848,7 +1928,7 @@
       <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>9</v>
       </c>
       <c r="H24" s="2" t="n">
@@ -1865,7 +1945,7 @@
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>9</v>
       </c>
-      <c r="M24" s="0" t="str">
+      <c r="M24" s="4" t="str">
         <f aca="false">IF(L24&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1875,12 +1955,12 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F25" s="2" t="n">
@@ -1900,7 +1980,7 @@
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>9</v>
       </c>
-      <c r="M25" s="0" t="str">
+      <c r="M25" s="4" t="str">
         <f aca="false">IF(L25&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1910,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>10</v>
@@ -1932,7 +2012,7 @@
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>9</v>
       </c>
-      <c r="M26" s="0" t="str">
+      <c r="M26" s="4" t="str">
         <f aca="false">IF(L26&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1942,7 +2022,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
@@ -1967,7 +2047,7 @@
         <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
         <v>9</v>
       </c>
-      <c r="M27" s="0" t="str">
+      <c r="M27" s="4" t="str">
         <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -1977,7 +2057,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>8</v>
@@ -1999,7 +2079,7 @@
         <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
         <v>9</v>
       </c>
-      <c r="M28" s="0" t="str">
+      <c r="M28" s="4" t="str">
         <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -2009,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -2031,7 +2111,7 @@
         <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="0" t="str">
+      <c r="M29" s="4" t="str">
         <f aca="false">IF(L29&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -2041,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>9</v>
@@ -2063,7 +2143,7 @@
         <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
         <v>9</v>
       </c>
-      <c r="M30" s="0" t="str">
+      <c r="M30" s="4" t="str">
         <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -2073,7 +2153,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>10</v>
@@ -2095,7 +2175,7 @@
         <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
         <v>11</v>
       </c>
-      <c r="M31" s="0" t="str">
+      <c r="M31" s="4" t="str">
         <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -2105,7 +2185,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>10</v>
@@ -2127,7 +2207,7 @@
         <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
         <v>17</v>
       </c>
-      <c r="M32" s="0" t="str">
+      <c r="M32" s="4" t="str">
         <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -2137,7 +2217,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>9</v>
@@ -2162,7 +2242,7 @@
         <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
         <v>15</v>
       </c>
-      <c r="M33" s="0" t="str">
+      <c r="M33" s="4" t="str">
         <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -2172,7 +2252,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8</v>
@@ -2194,7 +2274,7 @@
         <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
         <v>9</v>
       </c>
-      <c r="M34" s="0" t="str">
+      <c r="M34" s="4" t="str">
         <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -2204,7 +2284,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>10</v>
@@ -2226,7 +2306,7 @@
         <f aca="false">ROUND(AVERAGE(C35,E35,J35),0)</f>
         <v>5</v>
       </c>
-      <c r="M35" s="0" t="str">
+      <c r="M35" s="4" t="str">
         <f aca="false">IF(L35&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -2259,11 +2339,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="F28 H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -2276,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -2333,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -2353,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -2373,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -2395,16 +2475,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -2415,16 +2495,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -2435,16 +2515,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -2455,16 +2535,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -2475,16 +2555,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -2495,7 +2575,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -2506,16 +2586,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -2526,16 +2606,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -2546,16 +2626,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -2566,16 +2646,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -2586,16 +2666,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -2606,16 +2686,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -2626,16 +2706,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -2654,13 +2734,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -2668,7 +2748,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -2679,16 +2759,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -2707,13 +2787,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -2721,13 +2801,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -2735,13 +2815,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -2749,16 +2829,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -2769,16 +2849,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -2789,16 +2869,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -2817,28 +2897,28 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -2846,16 +2926,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -2866,16 +2946,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -2903,11 +2983,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="1" sqref="F28 G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -2918,19 +2998,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -2969,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -2991,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -3005,7 +3085,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -3022,7 +3102,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -3039,7 +3119,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -3050,13 +3130,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -3067,7 +3147,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -3078,13 +3158,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -3103,10 +3183,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -3114,10 +3194,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -3125,10 +3205,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -3136,10 +3216,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -3147,13 +3227,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -3164,13 +3244,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3181,13 +3261,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -3206,10 +3286,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -3217,13 +3297,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>10</v>
@@ -3234,13 +3314,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10</v>
@@ -3259,10 +3339,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
@@ -3270,10 +3350,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3281,10 +3361,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -3292,13 +3372,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8</v>
@@ -3309,7 +3389,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -3320,13 +3400,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -3337,13 +3417,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -3354,13 +3434,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>10</v>
@@ -3371,7 +3451,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -3382,13 +3462,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>8</v>
@@ -3399,13 +3479,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10</v>
@@ -3416,13 +3496,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
@@ -3433,13 +3513,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10</v>
@@ -3458,10 +3538,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>10</v>
@@ -3469,10 +3549,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>9</v>
@@ -3480,10 +3560,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>9</v>
@@ -3491,10 +3571,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9</v>
@@ -3502,10 +3582,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>9</v>
@@ -3513,10 +3593,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>8</v>
@@ -3524,13 +3604,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10</v>
@@ -3541,7 +3621,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1</v>
@@ -3576,11 +3656,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F28 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -3592,19 +3672,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,7 +3695,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -3654,7 +3734,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -3671,7 +3751,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -3688,7 +3768,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
@@ -3710,7 +3790,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>9</v>
@@ -3721,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -3732,7 +3812,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -3743,7 +3823,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -3754,7 +3834,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -3765,7 +3845,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -3776,7 +3856,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -3787,7 +3867,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -3795,13 +3875,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -3812,7 +3892,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -3823,13 +3903,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>9</v>
@@ -3840,13 +3920,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -3865,10 +3945,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>6</v>
@@ -3876,10 +3956,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -3887,10 +3967,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
@@ -3898,10 +3978,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -3909,10 +3989,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -3920,13 +4000,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>9</v>
@@ -3945,10 +4025,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>6</v>
@@ -3956,13 +4036,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -3973,13 +4053,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -3998,10 +4078,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4009,10 +4089,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>6</v>
@@ -4020,10 +4100,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>6</v>
@@ -4031,13 +4111,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>5</v>
@@ -4056,10 +4136,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
@@ -4067,10 +4147,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -4078,10 +4158,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -4089,7 +4169,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -4100,13 +4180,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>8</v>
@@ -4125,10 +4205,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>8</v>
@@ -4136,10 +4216,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>7</v>
@@ -4147,10 +4227,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -4158,13 +4238,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>9</v>
@@ -4175,13 +4255,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -4192,13 +4272,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -4209,7 +4289,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -4220,13 +4300,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>7</v>
@@ -4237,13 +4317,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>9</v>
@@ -4262,10 +4342,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -4273,13 +4353,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
@@ -4290,13 +4370,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10</v>
@@ -4307,13 +4387,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>7</v>
@@ -4324,13 +4404,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -4360,14 +4440,14 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="F28 E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
   </cols>
   <sheetData>
@@ -4376,22 +4456,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,10 +4479,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -4413,13 +4493,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -4438,13 +4518,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -4452,13 +4532,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4466,13 +4546,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.75</v>
@@ -4480,13 +4560,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -4494,13 +4574,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.5</v>
@@ -4511,13 +4591,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -4536,13 +4616,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8.75</v>
@@ -4550,13 +4630,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.75</v>
@@ -4564,13 +4644,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1.25</v>
@@ -4594,14 +4674,14 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="F28 D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.12"/>
   </cols>
@@ -4611,22 +4691,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -4648,13 +4728,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -4673,13 +4753,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -4687,13 +4767,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4701,13 +4781,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8.75</v>
@@ -4734,19 +4814,19 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="F28 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4764,13 +4844,13 @@
         <v>45770</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,7 +4981,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -4926,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>6</v>
@@ -4945,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -4970,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -4992,7 +5072,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -5020,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(C13:F13)</f>
@@ -5036,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>9</v>
@@ -5064,7 +5144,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -5092,7 +5172,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -5111,7 +5191,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -5130,7 +5210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5149,7 +5229,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -5174,7 +5254,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">SUM(C20:F20)</f>
@@ -5190,7 +5270,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -5212,7 +5292,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -5234,7 +5314,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -5256,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -5287,7 +5367,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -5318,7 +5398,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -5343,7 +5423,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="222">
+  <si>
+    <t xml:space="preserve">nRO</t>
+  </si>
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -62,6 +65,9 @@
     <t xml:space="preserve">thaielomar44@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Franco Tomas</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t xml:space="preserve">48702442@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarde 14:14</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
     <t xml:space="preserve">rodribernalel10@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operado </t>
+  </si>
+  <si>
     <t xml:space="preserve">Yoel Santiago</t>
   </si>
   <si>
@@ -99,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">yoecaballero@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Tarde 14:10</t>
@@ -765,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,10 +787,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,22 +890,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="8.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -906,19 +917,46 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>45791</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -926,452 +964,1025 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E27,"p")</f>
+        <v>23</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G27,"p")</f>
+        <v>22</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I27,"p")</f>
+        <v>26</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J27,"p")</f>
+        <v>23</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K27,"p")</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L27,"p")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
-        <f aca="false">COUNTIF(D2:D27,"p")</f>
-        <v>24</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F27,"p")</f>
-        <v>23</v>
+      <c r="M28" s="0" t="n">
+        <f aca="false">COUNTIF(M2:M27,"p")</f>
+        <v>25</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">COUNTIF(N2:N27,"p")</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1392,66 +2003,69 @@
   </sheetPr>
   <dimension ref="A9:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="F28 L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="1" sqref="N28 M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -1473,28 +2087,28 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>9</v>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="M10" s="3" t="str">
         <f aca="false">IF(L10&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -1511,17 +2125,17 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="4" t="str">
+      <c r="M11" s="3" t="str">
         <f aca="false">IF(L11&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -1543,17 +2157,17 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>6</v>
       </c>
-      <c r="M12" s="4" t="str">
+      <c r="M12" s="3" t="str">
         <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -1575,17 +2189,17 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>9</v>
       </c>
-      <c r="M13" s="4" t="str">
+      <c r="M13" s="3" t="str">
         <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
@@ -1607,17 +2221,17 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>9</v>
       </c>
-      <c r="M14" s="4" t="str">
+      <c r="M14" s="3" t="str">
         <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -1639,17 +2253,17 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="4" t="str">
+      <c r="M15" s="3" t="str">
         <f aca="false">IF(L15&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -1671,28 +2285,28 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>10</v>
       </c>
-      <c r="M16" s="4" t="str">
+      <c r="M16" s="3" t="str">
         <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="4" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="4" t="n">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -1709,17 +2323,17 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>9</v>
       </c>
-      <c r="M17" s="4" t="str">
+      <c r="M17" s="3" t="str">
         <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -1741,17 +2355,17 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>11</v>
       </c>
-      <c r="M18" s="4" t="str">
+      <c r="M18" s="3" t="str">
         <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -1773,387 +2387,387 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="M19" s="4" t="str">
+      <c r="M19" s="3" t="str">
         <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45784</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">I20/2+G20</f>
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="L20" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M20" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3" t="str">
         <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>45784</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">I21/2+G21</f>
-        <v>8</v>
+        <v>26.5</v>
       </c>
       <c r="L21" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
-        <v>8</v>
-      </c>
-      <c r="M21" s="4" t="str">
+        <v>15</v>
+      </c>
+      <c r="M21" s="3" t="str">
         <f aca="false">IF(L21&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">I22/2+G22</f>
-        <v>26.5</v>
+        <v>17</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="L22" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
-        <v>15</v>
-      </c>
-      <c r="M22" s="4" t="str">
+        <f aca="false">ROUND(AVERAGE(C22,E22,J22,K22),0)</f>
+        <v>11</v>
+      </c>
+      <c r="M22" s="3" t="str">
         <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45784</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">I23/2+G23</f>
-        <v>17</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L23" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M23" s="4" t="str">
+        <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M23" s="3" t="str">
         <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45784</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">I24/2+G24</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="L24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>9</v>
       </c>
-      <c r="M24" s="4" t="str">
+      <c r="M24" s="3" t="str">
         <f aca="false">IF(L24&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45784</v>
+      <c r="E25" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">I25/2+G25</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="L25" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>9</v>
       </c>
-      <c r="M25" s="4" t="str">
+      <c r="M25" s="3" t="str">
         <f aca="false">IF(L25&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">I26/2+G26</f>
-        <v>9.5</v>
+        <v>9</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="L26" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="4" t="str">
+        <f aca="false">ROUND(AVERAGE(C26,E26,J26,K26),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="3" t="str">
         <f aca="false">IF(L26&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">I27/2+G27</f>
-        <v>9</v>
-      </c>
-      <c r="K27" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L27" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M27" s="4" t="str">
+        <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M27" s="3" t="str">
         <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">I28/2+G28</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="L28" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M28" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3" t="str">
         <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" s="0" t="n">
         <f aca="false">I29/2+G29</f>
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="L29" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
-        <v>2</v>
-      </c>
-      <c r="M29" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="M29" s="3" t="str">
         <f aca="false">IF(L29&gt;6,"TEA","TEP")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">I30/2+G30</f>
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="L30" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M30" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="M30" s="3" t="str">
         <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>10</v>
@@ -2162,36 +2776,36 @@
         <v>10</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false">I31/2+G31</f>
-        <v>12.5</v>
+        <v>30.5</v>
       </c>
       <c r="L31" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M31" s="4" t="str">
+        <v>17</v>
+      </c>
+      <c r="M31" s="3" t="str">
         <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>10</v>
@@ -2203,112 +2817,112 @@
         <f aca="false">I32/2+G32</f>
         <v>30.5</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="L32" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
-        <v>17</v>
-      </c>
-      <c r="M32" s="4" t="str">
+        <f aca="false">ROUND(AVERAGE(C32,E32,J32,K32),0)</f>
+        <v>15</v>
+      </c>
+      <c r="M32" s="3" t="str">
         <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J33" s="0" t="n">
         <f aca="false">I33/2+G33</f>
-        <v>30.5</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L33" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
-        <v>15</v>
-      </c>
-      <c r="M33" s="4" t="str">
+        <f aca="false">ROUND(AVERAGE(C33,E33,J33),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M33" s="3" t="str">
         <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
         <f aca="false">I34/2+G34</f>
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="L34" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M34" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="M34" s="3" t="str">
         <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J35" s="0" t="n">
         <f aca="false">I35/2+G35</f>
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="L35" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C35,E35,J35),0)</f>
-        <v>5</v>
-      </c>
-      <c r="M35" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="M35" s="3" t="str">
         <f aca="false">IF(L35&gt;6,"TEA","TEP")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
     </row>
   </sheetData>
@@ -2340,49 +2954,49 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="F28 H29"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="N28 H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -2393,7 +3007,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -2404,16 +3018,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -2424,16 +3038,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -2444,16 +3058,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -2464,7 +3078,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -2475,16 +3089,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -2495,16 +3109,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -2515,16 +3129,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -2535,16 +3149,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -2555,16 +3169,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -2575,7 +3189,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -2586,16 +3200,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -2606,16 +3220,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -2626,16 +3240,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -2646,16 +3260,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -2666,16 +3280,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -2686,16 +3300,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -2706,16 +3320,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -2734,13 +3348,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -2748,7 +3362,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -2759,16 +3373,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -2787,13 +3401,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -2801,13 +3415,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -2815,13 +3429,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -2829,16 +3443,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -2849,16 +3463,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -2869,16 +3483,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -2897,28 +3511,28 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -2926,16 +3540,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -2946,16 +3560,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -2984,10 +3598,10 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="1" sqref="F28 G40"/>
+      <selection pane="topLeft" activeCell="G40" activeCellId="1" sqref="N28 G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -2995,33 +3609,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -3032,7 +3646,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -3043,13 +3657,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -3068,10 +3682,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -3079,13 +3693,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -3096,13 +3710,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -3113,13 +3727,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -3130,13 +3744,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -3147,7 +3761,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -3158,13 +3772,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -3183,10 +3797,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -3194,10 +3808,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -3205,10 +3819,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -3216,10 +3830,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -3227,13 +3841,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -3244,13 +3858,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3261,13 +3875,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -3286,10 +3900,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -3297,13 +3911,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>10</v>
@@ -3314,13 +3928,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10</v>
@@ -3339,10 +3953,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
@@ -3350,10 +3964,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3361,10 +3975,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -3372,13 +3986,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8</v>
@@ -3389,7 +4003,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -3400,13 +4014,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -3417,13 +4031,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -3434,13 +4048,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>10</v>
@@ -3451,7 +4065,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -3462,13 +4076,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>8</v>
@@ -3479,13 +4093,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10</v>
@@ -3496,13 +4110,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
@@ -3513,13 +4127,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10</v>
@@ -3538,10 +4152,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>10</v>
@@ -3549,10 +4163,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>9</v>
@@ -3560,10 +4174,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>9</v>
@@ -3571,10 +4185,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9</v>
@@ -3582,10 +4196,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>9</v>
@@ -3593,10 +4207,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>8</v>
@@ -3604,13 +4218,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10</v>
@@ -3621,7 +4235,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1</v>
@@ -3657,10 +4271,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F28 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="N28 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -3669,33 +4283,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -3706,7 +4320,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -3717,7 +4331,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -3728,13 +4342,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -3745,13 +4359,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -3762,13 +4376,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
@@ -3787,10 +4401,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>9</v>
@@ -3798,10 +4412,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -3809,10 +4423,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -3820,10 +4434,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -3831,10 +4445,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -3842,10 +4456,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -3853,10 +4467,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -3864,10 +4478,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -3875,13 +4489,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -3892,7 +4506,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -3903,13 +4517,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>9</v>
@@ -3920,13 +4534,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -3945,10 +4559,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>6</v>
@@ -3956,10 +4570,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -3967,10 +4581,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
@@ -3978,10 +4592,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -3989,10 +4603,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -4000,13 +4614,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>9</v>
@@ -4025,10 +4639,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>6</v>
@@ -4036,13 +4650,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -4053,13 +4667,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -4078,10 +4692,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4089,10 +4703,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>6</v>
@@ -4100,10 +4714,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>6</v>
@@ -4111,13 +4725,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>5</v>
@@ -4136,10 +4750,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
@@ -4147,10 +4761,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -4158,10 +4772,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -4169,7 +4783,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -4180,13 +4794,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>8</v>
@@ -4205,10 +4819,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>8</v>
@@ -4216,10 +4830,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>7</v>
@@ -4227,10 +4841,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -4238,13 +4852,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>9</v>
@@ -4255,13 +4869,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -4272,13 +4886,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -4289,7 +4903,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -4300,13 +4914,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>7</v>
@@ -4317,13 +4931,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>9</v>
@@ -4342,10 +4956,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -4353,13 +4967,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
@@ -4370,13 +4984,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10</v>
@@ -4387,13 +5001,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>7</v>
@@ -4404,13 +5018,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -4441,10 +5055,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="F28 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="N28 E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -4453,36 +5067,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -4493,13 +5107,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -4518,13 +5132,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -4532,13 +5146,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4546,13 +5160,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.75</v>
@@ -4560,13 +5174,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -4574,13 +5188,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.5</v>
@@ -4591,13 +5205,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -4616,13 +5230,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8.75</v>
@@ -4630,13 +5244,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.75</v>
@@ -4644,13 +5258,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1.25</v>
@@ -4675,10 +5289,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="F28 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="N28 D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -4688,36 +5302,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -4728,13 +5342,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -4753,13 +5367,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -4767,13 +5381,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4781,13 +5395,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8.75</v>
@@ -4814,11 +5428,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="F28 I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="1" sqref="N28 I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
@@ -4826,10 +5440,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>45735</v>
@@ -4844,13 +5458,13 @@
         <v>45770</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -4880,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">SUM(C3:F3)</f>
@@ -4896,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -4921,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -4943,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -4965,7 +5579,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(C7:F7)</f>
@@ -4981,7 +5595,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -5006,7 +5620,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>6</v>
@@ -5025,7 +5639,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -5050,7 +5664,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -5072,7 +5686,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -5100,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(C13:F13)</f>
@@ -5116,7 +5730,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>9</v>
@@ -5144,7 +5758,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -5172,7 +5786,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -5191,7 +5805,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -5210,7 +5824,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5229,7 +5843,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -5254,7 +5868,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">SUM(C20:F20)</f>
@@ -5270,7 +5884,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -5292,7 +5906,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -5314,7 +5928,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -5336,7 +5950,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -5367,7 +5981,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -5398,7 +6012,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -5423,7 +6037,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,9 @@
     <sheet name="Recup 2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Recup 3" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="positivos" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="4-fuente Swi" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="5-inversor" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Evaluacion" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="276">
   <si>
     <t xml:space="preserve">nRO</t>
   </si>
@@ -44,6 +47,24 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentes tota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -56,6 +77,12 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thaiel Omar</t>
   </si>
   <si>
@@ -101,9 +128,6 @@
     <t xml:space="preserve">rodribernalel10@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">operado </t>
   </si>
   <si>
@@ -335,15 +359,30 @@
     <t xml:space="preserve">Valoracion peda</t>
   </si>
   <si>
+    <t xml:space="preserve">4-fuen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-inversor-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiempo requerido</t>
   </si>
   <si>
     <t xml:space="preserve">Calificación/10,00</t>
   </si>
   <si>
-    <t xml:space="preserve">promedio</t>
-  </si>
-  <si>
     <t xml:space="preserve">segunda </t>
   </si>
   <si>
@@ -693,6 +732,132 @@
   </si>
   <si>
     <t xml:space="preserve">total corregido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 horas 21 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 13 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 45 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 37 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 6 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 minutos 12 segundos</t>
   </si>
 </sst>
 </file>
@@ -729,7 +894,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,17 +903,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -777,7 +955,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,11 +968,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,7 +1005,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -820,6 +1014,20 @@
         <color rgb="FFCC0000"/>
         <sz val="12"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -833,7 +1041,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -867,7 +1075,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -890,21 +1098,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="10.95"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,43 +1159,99 @@
       <c r="O1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="P1" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">COUNTIF(E2:P2,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">COUNTIF(E2:P2,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">COUNTIF(E2:P2,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">ROUND(Q2+R2/2*S2/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <f aca="false">ROUND(T2*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,37 +1259,60 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:P3,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:P3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:P3,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">ROUND(Q3+R3/2*S3/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <f aca="false">ROUND(T3*10/$W$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,37 +1320,60 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:P4,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:P4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:P4,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">ROUND(Q4+R4/2*S4/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <f aca="false">ROUND(T4*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,40 +1381,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:P5,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:P5,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:P5,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">ROUND(Q5+R5/2*S5/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <f aca="false">ROUND(T5*10/$W$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,40 +1445,63 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:P6,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:P6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:P6,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">ROUND(Q6+R6/2*S6/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <f aca="false">ROUND(T6*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,39 +1509,62 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:P7,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:P7,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:P7,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">ROUND(Q7+R7/2*S7/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <f aca="false">ROUND(T7*10/$W$1,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -1196,37 +1573,60 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:P8,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:P8,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:P8,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">ROUND(Q8+R8/2*S8/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <f aca="false">ROUND(T8*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,37 +1634,60 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:P9,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:P9,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:P9,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">ROUND(Q9+R9/2*S9/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <f aca="false">ROUND(T9*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,37 +1695,60 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:P10,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:P10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:P10,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">ROUND(Q10+R10/2*S10/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <f aca="false">ROUND(T10*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,37 +1756,60 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:P11,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:P11,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:P11,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">ROUND(Q11+R11/2*S11/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <f aca="false">ROUND(T11*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,37 +1817,60 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:P12,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:P12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:P12,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">ROUND(Q12+R12/2*S12/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <f aca="false">ROUND(T12*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,37 +1878,60 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:P13,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:P13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:P13,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">ROUND(Q13+R13/2*S13/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <f aca="false">ROUND(T13*10/$W$1,0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,37 +1939,60 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:P14,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:P14,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:P14,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">ROUND(Q14+R14/2*S14/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <f aca="false">ROUND(T14*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,37 +2000,60 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:P15,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:P15,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:P15,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">ROUND(Q15+R15/2*S15/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <f aca="false">ROUND(T15*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,37 +2061,60 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:P16,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:P16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:P16,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">ROUND(Q16+R16/2*S16/4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <f aca="false">ROUND(T16*10/$W$1,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,37 +2122,60 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:P17,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:P17,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:P17,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">ROUND(Q17+R17/2*S17/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <f aca="false">ROUND(T17*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,37 +2183,60 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:P18,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:P18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:P18,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">ROUND(Q18+R18/2*S18/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <f aca="false">ROUND(T18*10/$W$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,37 +2244,60 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:P19,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:P19,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:P19,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">ROUND(Q19+R19/2*S19/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <f aca="false">ROUND(T19*10/$W$1,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,37 +2305,60 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:P20,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:P20,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:P20,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">ROUND(Q20+R20/2*S20/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U20" s="3" t="n">
+        <f aca="false">ROUND(T20*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,37 +2366,60 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:P21,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:P21,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:P21,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">ROUND(Q21+R21/2*S21/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <f aca="false">ROUND(T21*10/$W$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,37 +2427,60 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:P22,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:P22,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:P22,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">ROUND(Q22+R22/2*S22/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <f aca="false">ROUND(T22*10/$W$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,37 +2488,60 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:P23,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:P23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:P23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">ROUND(Q23+R23/2*S23/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <f aca="false">ROUND(T23*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,37 +2549,60 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:P24,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:P24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:P24,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">ROUND(Q24+R24/2*S24/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U24" s="3" t="n">
+        <f aca="false">ROUND(T24*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,37 +2610,60 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:P25,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:P25,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:P25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">ROUND(Q25+R25/2*S25/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <f aca="false">ROUND(T25*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,37 +2671,60 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:P26,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:P26,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:P26,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">ROUND(Q26+R26/2*S26/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U26" s="3" t="n">
+        <f aca="false">ROUND(T26*10/$W$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,37 +2732,60 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:P27,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:P27,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:P27,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">ROUND(Q27+R27/2*S27/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U27" s="3" t="n">
+        <f aca="false">ROUND(T27*10/$W$1,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +2819,11 @@
       </c>
       <c r="N28" s="0" t="n">
         <f aca="false">COUNTIF(N2:N27,"p")</f>
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">COUNTIF(P2:P27,"p")</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1996,68 +2837,1211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.84"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">AVERAGE(F8:F9)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">ROUND(MAX(H8,G8),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F21)</f>
+        <v>7.75</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I31,"&gt;0")</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:M35"/>
+  <dimension ref="A9:T35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="1" sqref="N28 M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -2083,13 +4067,35 @@
         <f aca="false">ROUND(I10/2+G10,0)</f>
         <v>8</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>9</v>
       </c>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="5" t="str">
         <f aca="false">IF(L10&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S10,R10,P10,N10,L10),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,18 +4103,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -2121,13 +4127,29 @@
         <f aca="false">I11/2+G11</f>
         <v>3</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="5" t="str">
         <f aca="false">IF(L11&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S11,R11,P11,N11,L11),0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -2153,13 +4175,35 @@
         <f aca="false">I12/2+G12</f>
         <v>8</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>6</v>
       </c>
-      <c r="M12" s="3" t="str">
+      <c r="M12" s="5" t="str">
         <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S12,R12,P12,N12,L12),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -2185,13 +4229,35 @@
         <f aca="false">I13/2+G13</f>
         <v>10</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>9</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="5" t="str">
         <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S13,R13,P13,N13,L13),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
@@ -2217,13 +4283,29 @@
         <f aca="false">I14/2+G14</f>
         <v>11</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>9</v>
       </c>
-      <c r="M14" s="3" t="str">
+      <c r="M14" s="5" t="str">
         <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S14,R14,P14,N14,L14),0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -2249,13 +4331,29 @@
         <f aca="false">I15/2+G15</f>
         <v>7</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="3" t="str">
+      <c r="M15" s="5" t="str">
         <f aca="false">IF(L15&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S15,R15,P15,N15,L15),0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +4361,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -2281,32 +4379,51 @@
         <f aca="false">I16/2+G16</f>
         <v>9.5</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>10</v>
       </c>
-      <c r="M16" s="3" t="str">
+      <c r="M16" s="5" t="str">
         <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S16,R16,P16,N16,L16),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="8" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="8" t="n">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -2319,21 +4436,43 @@
         <f aca="false">I17/2+G17</f>
         <v>11</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>9</v>
       </c>
-      <c r="M17" s="3" t="str">
+      <c r="M17" s="5" t="str">
         <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N17" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>45850</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>45850</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S17,R17,P17,N17,L17),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -2351,21 +4490,41 @@
         <f aca="false">I18/2+G18</f>
         <v>15.5</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>11</v>
       </c>
-      <c r="M18" s="3" t="str">
+      <c r="M18" s="5" t="str">
         <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">ROUND(MAX(M18,L18),0)</f>
+        <v>11</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>45850</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S18,R18,P18,N18,L18),0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -2383,391 +4542,602 @@
         <f aca="false">I19/2+G19</f>
         <v>9</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="M19" s="3" t="str">
+      <c r="M19" s="5" t="str">
         <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S19,R19,P19,N19,L19),0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>45784</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">I20/2+G20</f>
-        <v>8</v>
-      </c>
-      <c r="L20" s="3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
-        <v>8</v>
-      </c>
-      <c r="M20" s="3" t="str">
+        <v>11</v>
+      </c>
+      <c r="M20" s="5" t="str">
         <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S20,R20,P20,N20,L20),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45784</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">I21/2+G21</f>
-        <v>26.5</v>
-      </c>
-      <c r="L21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
-        <v>15</v>
-      </c>
-      <c r="M21" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="M21" s="5" t="str">
         <f aca="false">IF(L21&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N21" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S21,R21,P21,N21,L21),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="I22" s="0" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">I22/2+G22</f>
-        <v>17</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C22,E22,J22,K22),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M22" s="3" t="str">
+        <v>26.5</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
+        <v>15</v>
+      </c>
+      <c r="M22" s="5" t="str">
         <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N22" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>45850</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>45850</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S22,R22,P22,N22,L22),0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>45784</v>
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">I23/2+G23</f>
-        <v>9.5</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M23" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
+        <v>11</v>
+      </c>
+      <c r="M23" s="5" t="str">
         <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N23" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S23,R23,P23,N23,L23),0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>45784</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>7</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">I24/2+G24</f>
-        <v>7.5</v>
-      </c>
-      <c r="L24" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L24" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>9</v>
       </c>
-      <c r="M24" s="3" t="str">
+      <c r="M24" s="5" t="str">
         <f aca="false">IF(L24&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S24,R24,P24,N24,L24),0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>8</v>
+      <c r="E25" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45784</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">I25/2+G25</f>
-        <v>9.5</v>
-      </c>
-      <c r="L25" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>9</v>
       </c>
-      <c r="M25" s="3" t="str">
+      <c r="M25" s="5" t="str">
         <f aca="false">IF(L25&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">ROUND(MAX(M26,L26),0)</f>
+        <v>9</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S25,R25,P25,N25,L25),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">I26/2+G26</f>
-        <v>9</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C26,E26,J26,K26),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="3" t="str">
+        <v>9.5</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="5" t="str">
         <f aca="false">IF(L26&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S26,R26,P26,N26,L26),0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">I27/2+G27</f>
-        <v>10</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M27" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M27" s="5" t="str">
         <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S27,R27,P27,N27,L27),0)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">I28/2+G28</f>
-        <v>2.5</v>
-      </c>
-      <c r="L28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
-        <v>2</v>
-      </c>
-      <c r="M28" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="M28" s="5" t="str">
         <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
-        <v>TEP</v>
+        <v>TEA</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S28,R28,P28,N28,L28),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29" s="0" t="n">
         <f aca="false">I29/2+G29</f>
-        <v>9.5</v>
-      </c>
-      <c r="L29" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M29" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5" t="str">
         <f aca="false">IF(L29&gt;6,"TEA","TEP")</f>
-        <v>TEA</v>
+        <v>TEP</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T29" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S29,R29,P29,N29,L29),0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">I30/2+G30</f>
-        <v>12.5</v>
-      </c>
-      <c r="L30" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L30" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M30" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="M30" s="5" t="str">
         <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T30" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S30,R30,P30,N30,L30),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>10</v>
@@ -2776,36 +5146,52 @@
         <v>10</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false">I31/2+G31</f>
-        <v>30.5</v>
-      </c>
-      <c r="L31" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L31" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
-        <v>17</v>
-      </c>
-      <c r="M31" s="3" t="str">
+        <v>11</v>
+      </c>
+      <c r="M31" s="5" t="str">
         <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N31" s="0" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S31,R31,P31,N31,L31),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>10</v>
@@ -2817,112 +5203,180 @@
         <f aca="false">I32/2+G32</f>
         <v>30.5</v>
       </c>
-      <c r="K32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C32,E32,J32,K32),0)</f>
-        <v>15</v>
-      </c>
-      <c r="M32" s="3" t="str">
+      <c r="L32" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
+        <v>17</v>
+      </c>
+      <c r="M32" s="5" t="str">
         <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N32" s="0" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S32,R32,P32,N32,L32),0)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J33" s="0" t="n">
         <f aca="false">I33/2+G33</f>
-        <v>9.5</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C33,E33,J33),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M33" s="3" t="str">
+        <v>30.5</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
+        <v>15</v>
+      </c>
+      <c r="M33" s="5" t="str">
         <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">ROUND(MAX(M35,L35),0)</f>
+        <v>5</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S33,R33,P33,N33,L33),0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
         <f aca="false">I34/2+G34</f>
-        <v>5</v>
-      </c>
-      <c r="L34" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L34" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
-        <v>5</v>
-      </c>
-      <c r="M34" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="M34" s="5" t="str">
         <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
-        <v>TEP</v>
+        <v>TEA</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="7" t="n">
+        <v>45849</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T34" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S34,R34,P34,N34,L34),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
         <f aca="false">I35/2+G35</f>
-        <v>13.5</v>
-      </c>
-      <c r="L35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C35,E35,J35),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M35" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="M35" s="5" t="str">
         <f aca="false">IF(L35&gt;6,"TEA","TEP")</f>
-        <v>TEA</v>
+        <v>TEP</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(S35,R35,P35,N35,L35),0)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2934,6 +5388,11 @@
   <conditionalFormatting sqref="M10:M35">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10:T35">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2953,11 +5412,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="N28 H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -2970,33 +5429,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -3007,7 +5466,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -3018,16 +5477,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -3038,16 +5497,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -3058,16 +5517,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -3078,7 +5537,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -3089,16 +5548,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -3109,16 +5568,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -3129,16 +5588,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -3149,16 +5608,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -3169,16 +5628,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -3189,7 +5648,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -3200,16 +5659,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -3220,16 +5679,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -3240,16 +5699,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -3260,16 +5719,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -3280,16 +5739,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -3300,16 +5759,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -3320,16 +5779,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -3348,13 +5807,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -3362,7 +5821,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -3373,16 +5832,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -3401,13 +5860,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -3415,13 +5874,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -3429,13 +5888,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -3443,16 +5902,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -3463,16 +5922,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -3483,16 +5942,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -3511,28 +5970,28 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -3540,16 +5999,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -3560,16 +6019,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -3597,11 +6056,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="1" sqref="N28 G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -3612,30 +6071,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -3646,7 +6105,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -3657,13 +6116,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -3682,10 +6141,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -3693,13 +6152,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -3710,13 +6169,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -3727,13 +6186,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -3744,13 +6203,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -3761,7 +6220,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -3772,13 +6231,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -3797,10 +6256,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -3808,10 +6267,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -3819,10 +6278,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -3830,10 +6289,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -3841,13 +6300,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -3858,13 +6317,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3875,13 +6334,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -3900,10 +6359,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -3911,13 +6370,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>10</v>
@@ -3928,13 +6387,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10</v>
@@ -3953,10 +6412,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
@@ -3964,10 +6423,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3975,10 +6434,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -3986,13 +6445,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8</v>
@@ -4003,7 +6462,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -4014,13 +6473,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -4031,13 +6490,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -4048,13 +6507,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>10</v>
@@ -4065,7 +6524,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -4076,13 +6535,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>8</v>
@@ -4093,13 +6552,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10</v>
@@ -4110,13 +6569,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
@@ -4127,13 +6586,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10</v>
@@ -4152,10 +6611,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>10</v>
@@ -4163,10 +6622,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>9</v>
@@ -4174,10 +6633,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>9</v>
@@ -4185,10 +6644,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9</v>
@@ -4196,10 +6655,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>9</v>
@@ -4207,10 +6666,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>8</v>
@@ -4218,13 +6677,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10</v>
@@ -4235,7 +6694,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1</v>
@@ -4270,11 +6729,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="N28 E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -4286,30 +6745,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -4320,7 +6779,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -4331,7 +6790,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -4342,13 +6801,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -4359,13 +6818,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -4376,13 +6835,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
@@ -4401,10 +6860,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>9</v>
@@ -4412,10 +6871,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -4423,10 +6882,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -4434,10 +6893,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -4445,10 +6904,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -4456,10 +6915,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -4467,10 +6926,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -4478,10 +6937,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -4489,13 +6948,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -4506,7 +6965,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -4517,13 +6976,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>9</v>
@@ -4534,13 +6993,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -4559,10 +7018,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>6</v>
@@ -4570,10 +7029,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -4581,10 +7040,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
@@ -4592,10 +7051,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -4603,10 +7062,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -4614,13 +7073,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>9</v>
@@ -4639,10 +7098,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>6</v>
@@ -4650,13 +7109,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -4667,13 +7126,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -4692,10 +7151,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4703,10 +7162,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>6</v>
@@ -4714,10 +7173,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>6</v>
@@ -4725,13 +7184,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>5</v>
@@ -4750,10 +7209,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
@@ -4761,10 +7220,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -4772,10 +7231,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -4783,7 +7242,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -4794,13 +7253,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>8</v>
@@ -4819,10 +7278,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>8</v>
@@ -4830,10 +7289,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>7</v>
@@ -4841,10 +7300,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -4852,13 +7311,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>9</v>
@@ -4869,13 +7328,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -4886,13 +7345,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -4903,7 +7362,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -4914,13 +7373,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>7</v>
@@ -4931,13 +7390,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>9</v>
@@ -4956,10 +7415,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -4967,13 +7426,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
@@ -4984,13 +7443,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10</v>
@@ -5001,13 +7460,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>7</v>
@@ -5018,13 +7477,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -5054,11 +7513,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="N28 E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5070,33 +7529,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -5107,13 +7566,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -5132,13 +7591,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -5146,13 +7605,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -5160,13 +7619,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.75</v>
@@ -5174,13 +7633,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -5188,13 +7647,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.5</v>
@@ -5205,13 +7664,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -5230,13 +7689,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8.75</v>
@@ -5244,13 +7703,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.75</v>
@@ -5258,13 +7717,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1.25</v>
@@ -5288,11 +7747,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="N28 D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5305,33 +7764,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -5342,13 +7801,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -5367,13 +7826,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -5381,13 +7840,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -5395,13 +7854,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8.75</v>
@@ -5428,11 +7887,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="1" sqref="N28 I27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
@@ -5440,7 +7899,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -5458,13 +7917,13 @@
         <v>45770</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -5494,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">SUM(C3:F3)</f>
@@ -5510,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -5535,7 +7994,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -5557,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -5579,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(C7:F7)</f>
@@ -5595,7 +8054,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -5620,7 +8079,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>6</v>
@@ -5639,7 +8098,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -5664,7 +8123,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -5686,7 +8145,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -5714,7 +8173,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(C13:F13)</f>
@@ -5730,7 +8189,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>9</v>
@@ -5758,7 +8217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -5786,7 +8245,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -5805,7 +8264,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -5824,7 +8283,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5843,7 +8302,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -5868,7 +8327,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">SUM(C20:F20)</f>
@@ -5884,7 +8343,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -5906,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -5928,7 +8387,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -5950,7 +8409,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -5981,7 +8440,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -6012,7 +8471,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -6037,7 +8496,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -6045,6 +8504,674 @@
       <c r="I27" s="0" t="n">
         <f aca="false">G27+H27</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">AVERAGE(F10:F11)</f>
+        <v>7.67</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">ROUND(MAX(H10,G10),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F19)</f>
+        <v>6.365</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">AVERAGE(F27:F31)</f>
+        <v>8.052</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">ROUND(MAX(H27,G27),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>8.13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>8.13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I33,"&gt;0")</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="276">
   <si>
     <t xml:space="preserve">nRO</t>
   </si>
@@ -894,7 +894,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +911,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC34A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -955,7 +961,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -976,7 +982,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,6 +1002,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,7 +1015,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1026,6 +1036,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1074,7 +1108,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF8BC34A"/>
       <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1100,11 +1134,11 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -2844,11 +2878,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
@@ -3413,11 +3447,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.19"/>
@@ -3966,11 +4000,11 @@
   </sheetPr>
   <dimension ref="A9:T35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -4061,11 +4095,11 @@
         <v>7</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">ROUND(I10/2+G10,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
@@ -4169,19 +4203,19 @@
         <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">I12/2+G12</f>
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="L12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="str">
         <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>5</v>
@@ -4223,15 +4257,15 @@
         <v>7</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">I13/2+G13</f>
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="L13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M13" s="5" t="str">
         <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
@@ -4277,15 +4311,15 @@
         <v>9</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">I14/2+G14</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14" s="5" t="str">
         <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
@@ -4373,15 +4407,15 @@
         <v>5</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">I16/2+G16</f>
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="L16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M16" s="5" t="str">
         <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
@@ -4404,7 +4438,7 @@
       </c>
       <c r="T16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S16,R16,P16,N16,L16),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,15 +4464,15 @@
         <v>45784</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">I17/2+G17</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="str">
         <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
@@ -4464,7 +4498,7 @@
       </c>
       <c r="T17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S17,R17,P17,N17,L17),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,15 +4518,15 @@
         <v>9</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">I18/2+G18</f>
-        <v>15.5</v>
+        <v>26.5</v>
       </c>
       <c r="L18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M18" s="5" t="str">
         <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
@@ -4500,7 +4534,7 @@
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">ROUND(MAX(M18,L18),0)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>9</v>
@@ -4516,7 +4550,7 @@
       </c>
       <c r="T18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S18,R18,P18,N18,L18),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,15 +4570,15 @@
         <v>6</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">I19/2+G19</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L19" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5" t="str">
         <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
@@ -4587,15 +4621,15 @@
         <v>8</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">I20/2+G20</f>
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="L20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M20" s="5" t="str">
         <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
@@ -4692,15 +4726,15 @@
         <v>7</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">I22/2+G22</f>
-        <v>26.5</v>
+        <v>50.5</v>
       </c>
       <c r="L22" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M22" s="5" t="str">
         <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
@@ -4726,7 +4760,7 @@
       </c>
       <c r="T22" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S22,R22,P22,N22,L22),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,18 +4780,18 @@
         <v>5</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">I23/2+G23</f>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L23" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M23" s="5" t="str">
         <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
@@ -4777,7 +4811,7 @@
       </c>
       <c r="T23" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S23,R23,P23,N23,L23),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,11 +4834,11 @@
         <v>45784</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">I24/2+G24</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="L24" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
@@ -4854,11 +4888,11 @@
         <v>7</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">I25/2+G25</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
@@ -4951,18 +4985,18 @@
         <v>5</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">I27/2+G27</f>
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L27" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M27" s="5" t="str">
         <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
@@ -5002,15 +5036,15 @@
         <v>10</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">I28/2+G28</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="str">
         <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
@@ -5050,11 +5084,11 @@
         <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J29" s="0" t="n">
         <f aca="false">I29/2+G29</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L29" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
@@ -5098,15 +5132,15 @@
         <v>7</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">I30/2+G30</f>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="L30" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M30" s="5" t="str">
         <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
@@ -5149,15 +5183,15 @@
         <v>9</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false">I31/2+G31</f>
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="L31" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M31" s="5" t="str">
         <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
@@ -5197,15 +5231,15 @@
         <v>10</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="J32" s="0" t="n">
         <f aca="false">I32/2+G32</f>
-        <v>30.5</v>
+        <v>58.5</v>
       </c>
       <c r="L32" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M32" s="5" t="str">
         <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
@@ -5225,7 +5259,7 @@
       </c>
       <c r="T32" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S32,R32,P32,N32,L32),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,18 +5279,18 @@
         <v>10</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="J33" s="0" t="n">
         <f aca="false">I33/2+G33</f>
-        <v>30.5</v>
+        <v>61.5</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L33" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M33" s="5" t="str">
         <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
@@ -5277,7 +5311,7 @@
       </c>
       <c r="T33" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S33,R33,P33,N33,L33),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,15 +5331,15 @@
         <v>7</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J34" s="0" t="n">
         <f aca="false">I34/2+G34</f>
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="L34" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M34" s="5" t="str">
         <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
@@ -5328,7 +5362,7 @@
       </c>
       <c r="T34" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S34,R34,P34,N34,L34),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,6 +5427,13 @@
   <conditionalFormatting sqref="T10:T35">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>7</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5412,11 +5453,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -6056,11 +6097,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -6729,11 +6770,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -7513,11 +7554,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7747,11 +7788,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7885,16 +7926,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7925,6 +7968,26 @@
       <c r="I1" s="0" t="s">
         <v>233</v>
       </c>
+      <c r="J1" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -7947,6 +8010,10 @@
         <f aca="false">G2+H2</f>
         <v>2</v>
       </c>
+      <c r="O2" s="10" t="n">
+        <f aca="false">SUM(N2,M2,L2,K2,J2,I2,H2,G2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -7963,6 +8030,10 @@
         <f aca="false">G3+H3</f>
         <v>0</v>
       </c>
+      <c r="O3" s="10" t="n">
+        <f aca="false">SUM(N3,M3,L3,K3,J3,I3,H3,G3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -7988,6 +8059,13 @@
         <f aca="false">G4+H4</f>
         <v>14</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <f aca="false">SUM(N4,M4,L4,K4,J4,I4,H4,G4)</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -8010,6 +8088,13 @@
         <f aca="false">G5+H5</f>
         <v>6</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <f aca="false">SUM(N5,M5,L5,K5,J5,I5,H5,G5)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -8032,6 +8117,10 @@
         <f aca="false">G6+H6</f>
         <v>4</v>
       </c>
+      <c r="O6" s="10" t="n">
+        <f aca="false">SUM(N6,M6,L6,K6,J6,I6,H6,G6)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -8048,6 +8137,10 @@
         <f aca="false">G7+H7</f>
         <v>0</v>
       </c>
+      <c r="O7" s="10" t="n">
+        <f aca="false">SUM(N7,M7,L7,K7,J7,I7,H7,G7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -8073,6 +8166,16 @@
         <f aca="false">G8+H8</f>
         <v>9</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="10" t="n">
+        <f aca="false">SUM(N8,M8,L8,K8,J8,I8,H8,G8)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -8092,6 +8195,10 @@
         <f aca="false">G9+H9</f>
         <v>6</v>
       </c>
+      <c r="O9" s="10" t="n">
+        <f aca="false">SUM(N9,M9,L9,K9,J9,I9,H9,G9)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -8117,6 +8224,22 @@
         <f aca="false">G10+H10</f>
         <v>13</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10" t="n">
+        <f aca="false">SUM(N10,M10,L10,K10,J10,I10,H10,G10)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -8139,6 +8262,19 @@
         <f aca="false">G11+H11</f>
         <v>6</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="n">
+        <f aca="false">SUM(N11,M11,L11,K11,J11,I11,H11,G11)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -8167,6 +8303,19 @@
         <f aca="false">G12+H12</f>
         <v>11</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10" t="n">
+        <f aca="false">SUM(N12,M12,L12,K12,J12,I12,H12,G12)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -8183,6 +8332,10 @@
         <f aca="false">G13+H13</f>
         <v>0</v>
       </c>
+      <c r="O13" s="10" t="n">
+        <f aca="false">SUM(N13,M13,L13,K13,J13,I13,H13,G13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -8211,6 +8364,13 @@
         <f aca="false">G14+H14</f>
         <v>39</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" s="10" t="n">
+        <f aca="false">SUM(N14,M14,L14,K14,J14,I14,H14,G14)</f>
+        <v>87</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -8239,6 +8399,19 @@
         <f aca="false">G15+H15</f>
         <v>24</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" s="10" t="n">
+        <f aca="false">SUM(N15,M15,L15,K15,J15,I15,H15,G15)</f>
+        <v>62</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -8258,6 +8431,13 @@
         <f aca="false">G16+H16</f>
         <v>1</v>
       </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10" t="n">
+        <f aca="false">SUM(N16,M16,L16,K16,J16,I16,H16,G16)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -8277,6 +8457,10 @@
         <f aca="false">G17+H17</f>
         <v>1</v>
       </c>
+      <c r="O17" s="10" t="n">
+        <f aca="false">SUM(N17,M17,L17,K17,J17,I17,H17,G17)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -8296,6 +8480,13 @@
         <f aca="false">G18+H18</f>
         <v>1</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="10" t="n">
+        <f aca="false">SUM(N18,M18,L18,K18,J18,I18,H18,G18)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -8321,6 +8512,16 @@
         <f aca="false">G19+H19</f>
         <v>8</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="10" t="n">
+        <f aca="false">SUM(N19,M19,L19,K19,J19,I19,H19,G19)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -8337,6 +8538,13 @@
         <f aca="false">G20+H20</f>
         <v>0</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="10" t="n">
+        <f aca="false">SUM(N20,M20,L20,K20,J20,I20,H20,G20)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -8359,6 +8567,13 @@
         <f aca="false">G21+H21</f>
         <v>3</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="10" t="n">
+        <f aca="false">SUM(N21,M21,L21,K21,J21,I21,H21,G21)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -8381,6 +8596,10 @@
         <f aca="false">G22+H22</f>
         <v>5</v>
       </c>
+      <c r="O22" s="10" t="n">
+        <f aca="false">SUM(N22,M22,L22,K22,J22,I22,H22,G22)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -8403,6 +8622,16 @@
         <f aca="false">G23+H23</f>
         <v>7</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="n">
+        <f aca="false">SUM(N23,M23,L23,K23,J23,I23,H23,G23)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -8434,6 +8663,16 @@
         <f aca="false">G24+H24</f>
         <v>41</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" s="10" t="n">
+        <f aca="false">SUM(N24,M24,L24,K24,J24,I24,H24,G24)</f>
+        <v>97</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -8465,6 +8704,22 @@
         <f aca="false">G25+H25</f>
         <v>41</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10" t="n">
+        <f aca="false">SUM(N25,M25,L25,K25,J25,I25,H25,G25)</f>
+        <v>103</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -8490,6 +8745,13 @@
         <f aca="false">G26+H26</f>
         <v>5</v>
       </c>
+      <c r="L26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" s="10" t="n">
+        <f aca="false">SUM(N26,M26,L26,K26,J26,I26,H26,G26)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -8503,6 +8765,10 @@
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">G27+H27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10" t="n">
+        <f aca="false">SUM(N27,M27,L27,K27,J27,I27,H27,G27)</f>
         <v>0</v>
       </c>
     </row>
@@ -8524,11 +8790,11 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="276">
   <si>
     <t xml:space="preserve">nRO</t>
   </si>
@@ -982,7 +982,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,11 +1134,11 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -2878,11 +2878,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
@@ -3447,11 +3447,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.19"/>
@@ -3998,13 +3998,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:T35"/>
+  <dimension ref="A9:U35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -4077,6 +4077,9 @@
       <c r="T9" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="U9" s="2" t="n">
+        <v>45875</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -4185,6 +4188,9 @@
         <f aca="false">ROUND(AVERAGE(S11,R11,P11,N11,L11),0)</f>
         <v>3</v>
       </c>
+      <c r="U11" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -4341,6 +4347,9 @@
         <f aca="false">ROUND(AVERAGE(S14,R14,P14,N14,L14),0)</f>
         <v>6</v>
       </c>
+      <c r="U14" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -4389,6 +4398,9 @@
         <f aca="false">ROUND(AVERAGE(S15,R15,P15,N15,L15),0)</f>
         <v>6</v>
       </c>
+      <c r="U15" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -4590,8 +4602,11 @@
       <c r="O19" s="7" t="n">
         <v>45849</v>
       </c>
-      <c r="P19" s="0" t="n">
-        <v>1</v>
+      <c r="P19" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>45877</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>3.25</v>
@@ -4601,7 +4616,10 @@
       </c>
       <c r="T19" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S19,R19,P19,N19,L19),0)</f>
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,6 +4885,9 @@
         <f aca="false">ROUND(AVERAGE(S24,R24,P24,N24,L24),0)</f>
         <v>5</v>
       </c>
+      <c r="U24" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -5018,6 +5039,9 @@
         <f aca="false">ROUND(AVERAGE(S27,R27,P27,N27,L27),0)</f>
         <v>6</v>
       </c>
+      <c r="U27" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -5114,6 +5138,9 @@
         <f aca="false">ROUND(AVERAGE(S29,R29,P29,N29,L29),0)</f>
         <v>3</v>
       </c>
+      <c r="U29" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -5411,6 +5438,9 @@
       <c r="T35" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S35,R35,P35,N35,L35),0)</f>
         <v>4</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5453,11 +5483,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -6097,11 +6127,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -6770,11 +6800,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -7554,11 +7584,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7788,11 +7818,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7928,11 +7958,11 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.5"/>
@@ -8790,11 +8820,11 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="282">
+  <si>
+    <t xml:space="preserve">totales</t>
+  </si>
   <si>
     <t xml:space="preserve">nRO</t>
   </si>
@@ -62,9 +65,6 @@
     <t xml:space="preserve">nota</t>
   </si>
   <si>
-    <t xml:space="preserve">totales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -77,10 +77,7 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">ro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Thaiel Omar</t>
@@ -92,9 +89,6 @@
     <t xml:space="preserve">thaielomar44@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Franco Tomas</t>
   </si>
   <si>
@@ -375,6 +369,30 @@
   </si>
   <si>
     <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compara dor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circuito andando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta circuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mal el circuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circuito no funciona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta ldr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentar carpeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta entregar</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo requerido</t>
@@ -961,7 +979,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -975,10 +993,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1132,174 +1146,133 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="7" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="W1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>45791</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="n">
+      <c r="H2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>45798</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>45805</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="2" t="n">
+      <c r="O2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="Q1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <f aca="false">COUNTIF(E2:P2,"P")</f>
-        <v>9</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <f aca="false">COUNTIF(E2:P2,"M")</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <f aca="false">COUNTIF(E2:P2,"T")</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <f aca="false">ROUND(Q2+R2/2*S2/4,0)</f>
-        <v>9</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <f aca="false">ROUND(T2*10/$W$1,0)</f>
-        <v>10</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>16</v>
+      <c r="S2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>45903</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>14</v>
@@ -1311,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>14</v>
@@ -1330,7 +1303,7 @@
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">COUNTIF(E3:P3,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="0" t="n">
         <f aca="false">COUNTIF(E3:P3,"M")</f>
@@ -1342,25 +1315,34 @@
       </c>
       <c r="T3" s="0" t="n">
         <f aca="false">ROUND(Q3+R3/2*S3/4,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U3" s="3" t="n">
         <f aca="false">ROUND(T3*10/$W$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>14</v>
@@ -1372,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>14</v>
@@ -1391,7 +1373,7 @@
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">COUNTIF(E4:P4,"P")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">COUNTIF(E4:P4,"M")</f>
@@ -1403,31 +1385,37 @@
       </c>
       <c r="T4" s="0" t="n">
         <f aca="false">ROUND(Q4+R4/2*S4/4,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U4" s="3" t="n">
         <f aca="false">ROUND(T4*10/$W$1,0)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>
@@ -1455,11 +1443,11 @@
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">COUNTIF(E5:P5,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R5" s="0" t="n">
         <f aca="false">COUNTIF(E5:P5,"M")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">COUNTIF(E5:P5,"T")</f>
@@ -1467,28 +1455,40 @@
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">ROUND(Q5+R5/2*S5/4,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5" s="3" t="n">
         <f aca="false">ROUND(T5*10/$W$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>14</v>
@@ -1510,20 +1510,17 @@
       </c>
       <c r="N6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">COUNTIF(E6:P6,"P")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6" s="0" t="n">
         <f aca="false">COUNTIF(E6:P6,"M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="0" t="n">
         <f aca="false">COUNTIF(E6:P6,"T")</f>
@@ -1531,34 +1528,40 @@
       </c>
       <c r="T6" s="0" t="n">
         <f aca="false">ROUND(Q6+R6/2*S6/4,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U6" s="3" t="n">
         <f aca="false">ROUND(T6*10/$W$1,0)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>14</v>
@@ -1577,17 +1580,20 @@
       </c>
       <c r="N7" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">COUNTIF(E7:P7,"P")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R7" s="0" t="n">
         <f aca="false">COUNTIF(E7:P7,"M")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">COUNTIF(E7:P7,"T")</f>
@@ -1595,31 +1601,43 @@
       </c>
       <c r="T7" s="0" t="n">
         <f aca="false">ROUND(Q7+R7/2*S7/4,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U7" s="3" t="n">
         <f aca="false">ROUND(T7*10/$W$1,0)</f>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>14</v>
@@ -1644,11 +1662,11 @@
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">COUNTIF(E8:P8,"P")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R8" s="0" t="n">
         <f aca="false">COUNTIF(E8:P8,"M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">COUNTIF(E8:P8,"T")</f>
@@ -1656,25 +1674,34 @@
       </c>
       <c r="T8" s="0" t="n">
         <f aca="false">ROUND(Q8+R8/2*S8/4,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U8" s="3" t="n">
         <f aca="false">ROUND(T8*10/$W$1,0)</f>
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>14</v>
@@ -1723,19 +1750,28 @@
         <f aca="false">ROUND(T9*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>14</v>
@@ -1784,19 +1820,28 @@
         <f aca="false">ROUND(T10*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>14</v>
@@ -1845,19 +1890,28 @@
         <f aca="false">ROUND(T11*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>14</v>
@@ -1906,19 +1960,28 @@
         <f aca="false">ROUND(T12*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>14</v>
@@ -1936,20 +1999,20 @@
         <v>14</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="0" t="n">
         <f aca="false">COUNTIF(E13:P13,"P")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R13" s="0" t="n">
         <f aca="false">COUNTIF(E13:P13,"M")</f>
@@ -1961,25 +2024,34 @@
       </c>
       <c r="T13" s="0" t="n">
         <f aca="false">ROUND(Q13+R13/2*S13/4,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U13" s="3" t="n">
         <f aca="false">ROUND(T13*10/$W$1,0)</f>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>14</v>
@@ -1997,20 +2069,20 @@
         <v>14</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="false">COUNTIF(E14:P14,"P")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R14" s="0" t="n">
         <f aca="false">COUNTIF(E14:P14,"M")</f>
@@ -2022,25 +2094,34 @@
       </c>
       <c r="T14" s="0" t="n">
         <f aca="false">ROUND(Q14+R14/2*S14/4,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U14" s="3" t="n">
         <f aca="false">ROUND(T14*10/$W$1,0)</f>
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>14</v>
@@ -2089,31 +2170,40 @@
         <f aca="false">ROUND(T15*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>14</v>
@@ -2125,14 +2215,14 @@
         <v>14</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="false">COUNTIF(E16:P16,"P")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R16" s="0" t="n">
         <f aca="false">COUNTIF(E16:P16,"M")</f>
@@ -2144,37 +2234,46 @@
       </c>
       <c r="T16" s="0" t="n">
         <f aca="false">ROUND(Q16+R16/2*S16/4,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U16" s="3" t="n">
         <f aca="false">ROUND(T16*10/$W$1,0)</f>
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>14</v>
@@ -2186,14 +2285,14 @@
         <v>14</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="0" t="n">
         <f aca="false">COUNTIF(E17:P17,"P")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R17" s="0" t="n">
         <f aca="false">COUNTIF(E17:P17,"M")</f>
@@ -2205,25 +2304,34 @@
       </c>
       <c r="T17" s="0" t="n">
         <f aca="false">ROUND(Q17+R17/2*S17/4,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U17" s="3" t="n">
         <f aca="false">ROUND(T17*10/$W$1,0)</f>
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>14</v>
@@ -2250,11 +2358,11 @@
         <v>14</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="0" t="n">
         <f aca="false">COUNTIF(E18:P18,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R18" s="0" t="n">
         <f aca="false">COUNTIF(E18:P18,"M")</f>
@@ -2266,28 +2374,37 @@
       </c>
       <c r="T18" s="0" t="n">
         <f aca="false">ROUND(Q18+R18/2*S18/4,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U18" s="3" t="n">
         <f aca="false">ROUND(T18*10/$W$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>14</v>
@@ -2305,17 +2422,17 @@
         <v>14</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="false">COUNTIF(E19:P19,"P")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R19" s="0" t="n">
         <f aca="false">COUNTIF(E19:P19,"M")</f>
@@ -2327,28 +2444,37 @@
       </c>
       <c r="T19" s="0" t="n">
         <f aca="false">ROUND(Q19+R19/2*S19/4,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U19" s="3" t="n">
         <f aca="false">ROUND(T19*10/$W$1,0)</f>
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>14</v>
@@ -2366,17 +2492,17 @@
         <v>14</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="false">COUNTIF(E20:P20,"P")</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R20" s="0" t="n">
         <f aca="false">COUNTIF(E20:P20,"M")</f>
@@ -2388,31 +2514,40 @@
       </c>
       <c r="T20" s="0" t="n">
         <f aca="false">ROUND(Q20+R20/2*S20/4,0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U20" s="3" t="n">
         <f aca="false">ROUND(T20*10/$W$1,0)</f>
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>14</v>
@@ -2437,7 +2572,7 @@
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="false">COUNTIF(E21:P21,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R21" s="0" t="n">
         <f aca="false">COUNTIF(E21:P21,"M")</f>
@@ -2449,31 +2584,40 @@
       </c>
       <c r="T21" s="0" t="n">
         <f aca="false">ROUND(Q21+R21/2*S21/4,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U21" s="3" t="n">
         <f aca="false">ROUND(T21*10/$W$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>14</v>
@@ -2482,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>14</v>
@@ -2516,19 +2660,28 @@
         <f aca="false">ROUND(T22*10/$W$1,0)</f>
         <v>9</v>
       </c>
+      <c r="V22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>14</v>
@@ -2543,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>14</v>
@@ -2559,7 +2712,7 @@
       </c>
       <c r="Q23" s="0" t="n">
         <f aca="false">COUNTIF(E23:P23,"P")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23" s="0" t="n">
         <f aca="false">COUNTIF(E23:P23,"M")</f>
@@ -2571,25 +2724,34 @@
       </c>
       <c r="T23" s="0" t="n">
         <f aca="false">ROUND(Q23+R23/2*S23/4,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U23" s="3" t="n">
         <f aca="false">ROUND(T23*10/$W$1,0)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>14</v>
@@ -2638,19 +2800,28 @@
         <f aca="false">ROUND(T24*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>14</v>
@@ -2699,19 +2870,28 @@
         <f aca="false">ROUND(T25*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>14</v>
@@ -2735,14 +2915,14 @@
         <v>14</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="0" t="n">
         <f aca="false">COUNTIF(E26:P26,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R26" s="0" t="n">
         <f aca="false">COUNTIF(E26:P26,"M")</f>
@@ -2754,56 +2934,65 @@
       </c>
       <c r="T26" s="0" t="n">
         <f aca="false">ROUND(Q26+R26/2*S26/4,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U26" s="3" t="n">
         <f aca="false">ROUND(T26*10/$W$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="0" t="n">
         <f aca="false">COUNTIF(E27:P27,"P")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R27" s="0" t="n">
         <f aca="false">COUNTIF(E27:P27,"M")</f>
@@ -2815,49 +3004,140 @@
       </c>
       <c r="T27" s="0" t="n">
         <f aca="false">ROUND(Q27+R27/2*S27/4,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U27" s="3" t="n">
         <f aca="false">ROUND(T27*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">COUNTIF(E28:P28,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">COUNTIF(E28:P28,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <f aca="false">COUNTIF(E28:P28,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">ROUND(Q28+R28/2*S28/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U28" s="3" t="n">
+        <f aca="false">ROUND(T28*10/$W$1,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E27,"p")</f>
+      <c r="V28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0" t="n">
+        <f aca="false">COUNTIF(E3:E28,"p")</f>
         <v>23</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">COUNTIF(G2:G27,"p")</f>
+      <c r="G29" s="0" t="n">
+        <f aca="false">COUNTIF(G3:G28,"p")</f>
         <v>22</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I27,"p")</f>
+      <c r="I29" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I28,"p")</f>
         <v>26</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">COUNTIF(J2:J27,"p")</f>
+      <c r="J29" s="0" t="n">
+        <f aca="false">COUNTIF(J3:J28,"p")</f>
         <v>23</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">COUNTIF(K2:K27,"p")</f>
+      <c r="K29" s="0" t="n">
+        <f aca="false">COUNTIF(K3:K28,"p")</f>
         <v>25</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L27,"p")</f>
+      <c r="L29" s="0" t="n">
+        <f aca="false">COUNTIF(L3:L28,"p")</f>
         <v>24</v>
       </c>
-      <c r="M28" s="0" t="n">
-        <f aca="false">COUNTIF(M2:M27,"p")</f>
+      <c r="M29" s="0" t="n">
+        <f aca="false">COUNTIF(M3:M28,"p")</f>
         <v>25</v>
       </c>
-      <c r="N28" s="0" t="n">
-        <f aca="false">COUNTIF(N2:N27,"p")</f>
+      <c r="N29" s="0" t="n">
+        <f aca="false">COUNTIF(N3:N28,"p")</f>
         <v>22</v>
       </c>
-      <c r="P28" s="0" t="n">
-        <f aca="false">COUNTIF(P2:P27,"p")</f>
+      <c r="P29" s="0" t="n">
+        <f aca="false">COUNTIF(P3:P28,"p")</f>
         <v>23</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V28,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">COUNTIF(W3:W28,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X28,"P")</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2878,11 +3158,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
@@ -2891,25 +3171,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2945,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -2959,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -2973,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -2987,16 +3267,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -3010,16 +3290,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3038,13 +3318,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6</v>
@@ -3055,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -3069,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3083,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3097,16 +3377,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3120,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3134,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -3148,7 +3428,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3162,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3176,16 +3456,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3204,13 +3484,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
@@ -3218,13 +3498,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3232,13 +3512,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3249,16 +3529,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3272,7 +3552,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3286,16 +3566,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3309,7 +3589,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -3323,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
@@ -3337,7 +3617,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -3351,16 +3631,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>9</v>
@@ -3374,16 +3654,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -3397,7 +3677,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -3411,7 +3691,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -3422,7 +3702,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">COUNTIF(I2:I31,"&gt;0")</f>
@@ -3447,11 +3727,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.19"/>
@@ -3459,16 +3739,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>3.5</v>
@@ -3496,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3.5</v>
@@ -3516,16 +3796,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.25</v>
@@ -3536,16 +3816,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2.25</v>
@@ -3556,16 +3836,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.75</v>
@@ -3576,16 +3856,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -3596,16 +3876,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8.5</v>
@@ -3616,16 +3896,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6.75</v>
@@ -3636,16 +3916,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -3656,16 +3936,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>3.25</v>
@@ -3676,16 +3956,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.5</v>
@@ -3696,16 +3976,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8.75</v>
@@ -3716,16 +3996,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4.5</v>
@@ -3736,16 +4016,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -3756,16 +4036,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3.25</v>
@@ -3776,16 +4056,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>5.25</v>
@@ -3796,16 +4076,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -3816,16 +4096,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -3836,16 +4116,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5.5</v>
@@ -3856,16 +4136,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.5</v>
@@ -3876,16 +4156,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.25</v>
@@ -3896,16 +4176,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>7.75</v>
@@ -3916,16 +4196,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8.75</v>
@@ -3936,16 +4216,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9.5</v>
@@ -3956,16 +4236,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -3976,7 +4256,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -3998,88 +4278,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:U35"/>
+  <dimension ref="A9:W35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="12" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.26"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>45875</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -4108,20 +4396,20 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>9</v>
       </c>
-      <c r="M10" s="5" t="str">
+      <c r="M10" s="4" t="str">
         <f aca="false">IF(L10&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="6" t="n">
         <v>45849</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="Q10" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R10" s="0" t="n">
@@ -4134,24 +4422,27 @@
         <f aca="false">ROUND(AVERAGE(S10,R10,P10,N10,L10),0)</f>
         <v>7</v>
       </c>
+      <c r="V10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="7" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -4168,7 +4459,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="5" t="str">
+      <c r="M11" s="4" t="str">
         <f aca="false">IF(L11&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -4189,7 +4480,10 @@
         <v>3</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -4219,20 +4513,20 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>10</v>
       </c>
-      <c r="M12" s="5" t="str">
+      <c r="M12" s="4" t="str">
         <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="6" t="n">
         <v>45849</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="Q12" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R12" s="0" t="n">
@@ -4245,13 +4539,16 @@
         <f aca="false">ROUND(AVERAGE(S12,R12,P12,N12,L12),0)</f>
         <v>7</v>
       </c>
+      <c r="V12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -4273,20 +4570,20 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>11</v>
       </c>
-      <c r="M13" s="5" t="str">
+      <c r="M13" s="4" t="str">
         <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="6" t="n">
         <v>45849</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R13" s="0" t="n">
@@ -4299,13 +4596,19 @@
         <f aca="false">ROUND(AVERAGE(S13,R13,P13,N13,L13),0)</f>
         <v>7</v>
       </c>
+      <c r="V13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
@@ -4327,7 +4630,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>10</v>
       </c>
-      <c r="M14" s="5" t="str">
+      <c r="M14" s="4" t="str">
         <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4348,7 +4651,10 @@
         <v>6</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,7 +4662,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -4378,7 +4684,7 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="5" t="str">
+      <c r="M15" s="4" t="str">
         <f aca="false">IF(L15&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -4399,7 +4705,10 @@
         <v>6</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -4429,14 +4738,14 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>12</v>
       </c>
-      <c r="M16" s="5" t="str">
+      <c r="M16" s="4" t="str">
         <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="P16" s="0" t="n">
@@ -4452,24 +4761,30 @@
         <f aca="false">ROUND(AVERAGE(S16,R16,P16,N16,L16),0)</f>
         <v>9</v>
       </c>
+      <c r="V16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="7" t="n">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -4486,20 +4801,20 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>10</v>
       </c>
-      <c r="M17" s="5" t="str">
+      <c r="M17" s="4" t="str">
         <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N17" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" s="7" t="n">
+      <c r="N17" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>45850</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="Q17" s="6" t="n">
         <v>45850</v>
       </c>
       <c r="R17" s="0" t="n">
@@ -4512,13 +4827,16 @@
         <f aca="false">ROUND(AVERAGE(S17,R17,P17,N17,L17),0)</f>
         <v>9</v>
       </c>
+      <c r="V17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -4540,7 +4858,7 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>15</v>
       </c>
-      <c r="M18" s="5" t="str">
+      <c r="M18" s="4" t="str">
         <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4548,10 +4866,10 @@
         <f aca="false">ROUND(MAX(M18,L18),0)</f>
         <v>15</v>
       </c>
-      <c r="P18" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="7" t="n">
+      <c r="P18" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="6" t="n">
         <v>45850</v>
       </c>
       <c r="R18" s="0" t="n">
@@ -4564,13 +4882,16 @@
         <f aca="false">ROUND(AVERAGE(S18,R18,P18,N18,L18),0)</f>
         <v>12</v>
       </c>
+      <c r="V18" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -4592,20 +4913,20 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>8</v>
       </c>
-      <c r="M19" s="5" t="str">
+      <c r="M19" s="4" t="str">
         <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="6" t="n">
         <v>45849</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="Q19" s="6" t="n">
         <v>45877</v>
       </c>
       <c r="R19" s="0" t="n">
@@ -4619,7 +4940,10 @@
         <v>6</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,7 +4951,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9</v>
@@ -4649,7 +4973,7 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>13</v>
       </c>
-      <c r="M20" s="5" t="str">
+      <c r="M20" s="4" t="str">
         <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4668,6 +4992,9 @@
       <c r="T20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S20,R20,P20,N20,L20),0)</f>
         <v>8</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,15 +5002,15 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -4703,17 +5030,17 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>8</v>
       </c>
-      <c r="M21" s="5" t="str">
+      <c r="M21" s="4" t="str">
         <f aca="false">IF(L21&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>8.8</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Q21" s="7" t="n">
+      <c r="Q21" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R21" s="0" t="n">
@@ -4725,6 +5052,9 @@
       <c r="T21" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S21,R21,P21,N21,L21),0)</f>
         <v>8</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,7 +5062,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -4754,20 +5084,20 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>23</v>
       </c>
-      <c r="M22" s="5" t="str">
+      <c r="M22" s="4" t="str">
         <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N22" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O22" s="7" t="n">
+      <c r="N22" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" s="6" t="n">
         <v>45850</v>
       </c>
-      <c r="P22" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="7" t="n">
+      <c r="P22" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="6" t="n">
         <v>45850</v>
       </c>
       <c r="R22" s="0" t="n">
@@ -4780,13 +5110,19 @@
         <f aca="false">ROUND(AVERAGE(S22,R22,P22,N22,L22),0)</f>
         <v>11</v>
       </c>
+      <c r="V22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -4811,7 +5147,7 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
         <v>16</v>
       </c>
-      <c r="M23" s="5" t="str">
+      <c r="M23" s="4" t="str">
         <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4831,13 +5167,19 @@
         <f aca="false">ROUND(AVERAGE(S23,R23,P23,N23,L23),0)</f>
         <v>8</v>
       </c>
+      <c r="V23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>8</v>
@@ -4845,7 +5187,7 @@
       <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="7" t="n">
         <v>9</v>
       </c>
       <c r="H24" s="2" t="n">
@@ -4862,17 +5204,17 @@
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>9</v>
       </c>
-      <c r="M24" s="5" t="str">
+      <c r="M24" s="4" t="str">
         <f aca="false">IF(L24&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="P24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" s="7" t="n">
+      <c r="Q24" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R24" s="0" t="n">
@@ -4886,7 +5228,10 @@
         <v>5</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,12 +5239,12 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F25" s="2" t="n">
@@ -4919,7 +5264,7 @@
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>9</v>
       </c>
-      <c r="M25" s="5" t="str">
+      <c r="M25" s="4" t="str">
         <f aca="false">IF(L25&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4939,6 +5284,9 @@
       <c r="T25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S25,R25,P25,N25,L25),0)</f>
         <v>8</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4946,7 +5294,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>10</v>
@@ -4968,7 +5316,7 @@
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>9</v>
       </c>
-      <c r="M26" s="5" t="str">
+      <c r="M26" s="4" t="str">
         <f aca="false">IF(L26&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4988,13 +5336,16 @@
         <f aca="false">ROUND(AVERAGE(S26,R26,P26,N26,L26),0)</f>
         <v>7</v>
       </c>
+      <c r="V26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
@@ -5019,7 +5370,7 @@
         <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
         <v>11</v>
       </c>
-      <c r="M27" s="5" t="str">
+      <c r="M27" s="4" t="str">
         <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5040,7 +5391,13 @@
         <v>6</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5405,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>8</v>
@@ -5070,11 +5427,11 @@
         <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
         <v>10</v>
       </c>
-      <c r="M28" s="5" t="str">
+      <c r="M28" s="4" t="str">
         <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="5" t="n">
         <v>10</v>
       </c>
       <c r="P28" s="0" t="n">
@@ -5089,6 +5446,9 @@
       <c r="T28" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S28,R28,P28,N28,L28),0)</f>
         <v>9</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5456,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -5118,7 +5478,7 @@
         <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="5" t="str">
+      <c r="M29" s="4" t="str">
         <f aca="false">IF(L29&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -5139,7 +5499,10 @@
         <v>3</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,7 +5510,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>9</v>
@@ -5169,17 +5532,17 @@
         <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
         <v>10</v>
       </c>
-      <c r="M30" s="5" t="str">
+      <c r="M30" s="4" t="str">
         <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="Q30" s="7" t="n">
+      <c r="Q30" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R30" s="0" t="n">
@@ -5191,6 +5554,12 @@
       <c r="T30" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S30,R30,P30,N30,L30),0)</f>
         <v>8</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,7 +5567,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>10</v>
@@ -5220,7 +5589,7 @@
         <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
         <v>13</v>
       </c>
-      <c r="M31" s="5" t="str">
+      <c r="M31" s="4" t="str">
         <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5239,6 +5608,9 @@
       <c r="T31" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S31,R31,P31,N31,L31),0)</f>
         <v>8</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5618,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>10</v>
@@ -5268,7 +5640,7 @@
         <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
         <v>26</v>
       </c>
-      <c r="M32" s="5" t="str">
+      <c r="M32" s="4" t="str">
         <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5288,13 +5660,16 @@
         <f aca="false">ROUND(AVERAGE(S32,R32,P32,N32,L32),0)</f>
         <v>12</v>
       </c>
+      <c r="V32" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>9</v>
@@ -5319,7 +5694,7 @@
         <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
         <v>22</v>
       </c>
-      <c r="M33" s="5" t="str">
+      <c r="M33" s="4" t="str">
         <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5340,13 +5715,16 @@
         <f aca="false">ROUND(AVERAGE(S33,R33,P33,N33,L33),0)</f>
         <v>11</v>
       </c>
+      <c r="V33" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8</v>
@@ -5368,17 +5746,17 @@
         <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
         <v>11</v>
       </c>
-      <c r="M34" s="5" t="str">
+      <c r="M34" s="4" t="str">
         <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Q34" s="7" t="n">
+      <c r="Q34" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="R34" s="0" t="n">
@@ -5390,6 +5768,9 @@
       <c r="T34" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(S34,R34,P34,N34,L34),0)</f>
         <v>9</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5778,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>10</v>
@@ -5419,7 +5800,7 @@
         <f aca="false">ROUND(AVERAGE(C35,E35,J35),0)</f>
         <v>5</v>
       </c>
-      <c r="M35" s="5" t="str">
+      <c r="M35" s="4" t="str">
         <f aca="false">IF(L35&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -5440,7 +5821,10 @@
         <v>4</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5483,36 +5867,36 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,7 +5910,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -5537,7 +5921,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -5548,16 +5932,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -5568,16 +5952,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -5588,16 +5972,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -5608,7 +5992,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -5619,16 +6003,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -5639,16 +6023,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -5659,16 +6043,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -5679,16 +6063,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -5699,16 +6083,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -5719,7 +6103,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -5730,16 +6114,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -5750,16 +6134,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -5770,16 +6154,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -5790,16 +6174,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -5810,16 +6194,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -5830,16 +6214,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -5850,16 +6234,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -5878,13 +6262,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -5892,7 +6276,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -5903,16 +6287,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -5931,13 +6315,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -5945,13 +6329,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -5959,13 +6343,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -5973,16 +6357,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -5993,16 +6377,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -6013,16 +6397,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -6041,28 +6425,28 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -6070,16 +6454,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -6090,16 +6474,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -6127,11 +6511,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -6139,22 +6523,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -6176,7 +6560,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -6187,13 +6571,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -6212,10 +6596,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -6223,13 +6607,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -6240,13 +6624,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -6257,13 +6641,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -6274,13 +6658,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -6291,7 +6675,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -6302,13 +6686,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -6327,10 +6711,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -6338,10 +6722,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -6349,10 +6733,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -6360,10 +6744,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -6371,13 +6755,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -6388,13 +6772,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -6405,13 +6789,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -6430,10 +6814,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -6441,13 +6825,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>10</v>
@@ -6458,13 +6842,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10</v>
@@ -6483,10 +6867,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
@@ -6494,10 +6878,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -6505,10 +6889,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -6516,13 +6900,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8</v>
@@ -6533,7 +6917,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -6544,13 +6928,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -6561,13 +6945,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -6578,13 +6962,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>10</v>
@@ -6595,7 +6979,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -6606,13 +6990,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>8</v>
@@ -6623,13 +7007,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10</v>
@@ -6640,13 +7024,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
@@ -6657,13 +7041,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10</v>
@@ -6682,10 +7066,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>10</v>
@@ -6693,10 +7077,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>9</v>
@@ -6704,10 +7088,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>9</v>
@@ -6715,10 +7099,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9</v>
@@ -6726,10 +7110,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>9</v>
@@ -6737,10 +7121,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>8</v>
@@ -6748,13 +7132,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10</v>
@@ -6765,7 +7149,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1</v>
@@ -6800,11 +7184,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -6813,22 +7197,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,7 +7223,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -6850,7 +7234,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -6861,7 +7245,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -6872,13 +7256,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -6889,13 +7273,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -6906,13 +7290,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
@@ -6931,10 +7315,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>9</v>
@@ -6942,10 +7326,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -6953,10 +7337,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -6964,10 +7348,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -6975,10 +7359,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -6986,10 +7370,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -6997,10 +7381,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -7008,10 +7392,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -7019,13 +7403,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -7036,7 +7420,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -7047,13 +7431,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>9</v>
@@ -7064,13 +7448,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -7089,10 +7473,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>6</v>
@@ -7100,10 +7484,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -7111,10 +7495,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
@@ -7122,10 +7506,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -7133,10 +7517,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -7144,13 +7528,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>9</v>
@@ -7169,10 +7553,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>6</v>
@@ -7180,13 +7564,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -7197,13 +7581,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -7222,10 +7606,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -7233,10 +7617,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>6</v>
@@ -7244,10 +7628,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>6</v>
@@ -7255,13 +7639,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>5</v>
@@ -7280,10 +7664,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
@@ -7291,10 +7675,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -7302,10 +7686,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -7313,7 +7697,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -7324,13 +7708,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>8</v>
@@ -7349,10 +7733,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>8</v>
@@ -7360,10 +7744,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>7</v>
@@ -7371,10 +7755,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -7382,13 +7766,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>9</v>
@@ -7399,13 +7783,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -7416,13 +7800,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -7433,7 +7817,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -7444,13 +7828,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>7</v>
@@ -7461,13 +7845,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>9</v>
@@ -7486,10 +7870,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -7497,13 +7881,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
@@ -7514,13 +7898,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10</v>
@@ -7531,13 +7915,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>7</v>
@@ -7548,13 +7932,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -7584,11 +7968,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7597,36 +7981,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -7637,13 +8021,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -7662,13 +8046,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -7676,13 +8060,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7690,13 +8074,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.75</v>
@@ -7704,13 +8088,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -7718,13 +8102,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.5</v>
@@ -7735,13 +8119,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -7760,13 +8144,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8.75</v>
@@ -7774,13 +8158,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.75</v>
@@ -7788,13 +8172,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1.25</v>
@@ -7818,11 +8202,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7832,36 +8216,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -7872,13 +8256,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -7897,13 +8281,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -7911,13 +8295,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7925,13 +8309,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8.75</v>
@@ -7958,24 +8342,24 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>45735</v>
@@ -7990,13 +8374,13 @@
         <v>45770</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J1" s="2" t="n">
         <v>45777</v>
@@ -8014,7 +8398,7 @@
         <v>45840</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8040,7 +8424,7 @@
         <f aca="false">G2+H2</f>
         <v>2</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="9" t="n">
         <f aca="false">SUM(N2,M2,L2,K2,J2,I2,H2,G2)</f>
         <v>4</v>
       </c>
@@ -8050,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">SUM(C3:F3)</f>
@@ -8060,7 +8444,7 @@
         <f aca="false">G3+H3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="O3" s="9" t="n">
         <f aca="false">SUM(N3,M3,L3,K3,J3,I3,H3,G3)</f>
         <v>0</v>
       </c>
@@ -8070,7 +8454,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -8092,7 +8476,7 @@
       <c r="J4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O4" s="10" t="n">
+      <c r="O4" s="9" t="n">
         <f aca="false">SUM(N4,M4,L4,K4,J4,I4,H4,G4)</f>
         <v>33</v>
       </c>
@@ -8102,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -8121,7 +8505,7 @@
       <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="O5" s="9" t="n">
         <f aca="false">SUM(N5,M5,L5,K5,J5,I5,H5,G5)</f>
         <v>15</v>
       </c>
@@ -8131,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -8147,7 +8531,7 @@
         <f aca="false">G6+H6</f>
         <v>4</v>
       </c>
-      <c r="O6" s="10" t="n">
+      <c r="O6" s="9" t="n">
         <f aca="false">SUM(N6,M6,L6,K6,J6,I6,H6,G6)</f>
         <v>8</v>
       </c>
@@ -8157,7 +8541,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(C7:F7)</f>
@@ -8167,7 +8551,7 @@
         <f aca="false">G7+H7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="10" t="n">
+      <c r="O7" s="9" t="n">
         <f aca="false">SUM(N7,M7,L7,K7,J7,I7,H7,G7)</f>
         <v>0</v>
       </c>
@@ -8177,7 +8561,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -8202,7 +8586,7 @@
       <c r="K8" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="O8" s="10" t="n">
+      <c r="O8" s="9" t="n">
         <f aca="false">SUM(N8,M8,L8,K8,J8,I8,H8,G8)</f>
         <v>20</v>
       </c>
@@ -8212,7 +8596,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>6</v>
@@ -8225,7 +8609,7 @@
         <f aca="false">G9+H9</f>
         <v>6</v>
       </c>
-      <c r="O9" s="10" t="n">
+      <c r="O9" s="9" t="n">
         <f aca="false">SUM(N9,M9,L9,K9,J9,I9,H9,G9)</f>
         <v>12</v>
       </c>
@@ -8235,7 +8619,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -8266,7 +8650,7 @@
       <c r="N10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="10" t="n">
+      <c r="O10" s="9" t="n">
         <f aca="false">SUM(N10,M10,L10,K10,J10,I10,H10,G10)</f>
         <v>35</v>
       </c>
@@ -8276,7 +8660,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -8301,7 +8685,7 @@
       <c r="N11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="10" t="n">
+      <c r="O11" s="9" t="n">
         <f aca="false">SUM(N11,M11,L11,K11,J11,I11,H11,G11)</f>
         <v>14</v>
       </c>
@@ -8311,7 +8695,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -8342,7 +8726,7 @@
       <c r="N12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="10" t="n">
+      <c r="O12" s="9" t="n">
         <f aca="false">SUM(N12,M12,L12,K12,J12,I12,H12,G12)</f>
         <v>24</v>
       </c>
@@ -8352,7 +8736,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(C13:F13)</f>
@@ -8362,7 +8746,7 @@
         <f aca="false">G13+H13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="10" t="n">
+      <c r="O13" s="9" t="n">
         <f aca="false">SUM(N13,M13,L13,K13,J13,I13,H13,G13)</f>
         <v>0</v>
       </c>
@@ -8372,7 +8756,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>9</v>
@@ -8397,7 +8781,7 @@
       <c r="J14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O14" s="10" t="n">
+      <c r="O14" s="9" t="n">
         <f aca="false">SUM(N14,M14,L14,K14,J14,I14,H14,G14)</f>
         <v>87</v>
       </c>
@@ -8407,7 +8791,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -8438,7 +8822,7 @@
       <c r="L15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O15" s="10" t="n">
+      <c r="O15" s="9" t="n">
         <f aca="false">SUM(N15,M15,L15,K15,J15,I15,H15,G15)</f>
         <v>62</v>
       </c>
@@ -8448,7 +8832,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -8464,7 +8848,7 @@
       <c r="L16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="10" t="n">
+      <c r="O16" s="9" t="n">
         <f aca="false">SUM(N16,M16,L16,K16,J16,I16,H16,G16)</f>
         <v>3</v>
       </c>
@@ -8474,7 +8858,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -8487,7 +8871,7 @@
         <f aca="false">G17+H17</f>
         <v>1</v>
       </c>
-      <c r="O17" s="10" t="n">
+      <c r="O17" s="9" t="n">
         <f aca="false">SUM(N17,M17,L17,K17,J17,I17,H17,G17)</f>
         <v>2</v>
       </c>
@@ -8497,7 +8881,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -8513,7 +8897,7 @@
       <c r="K18" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="O18" s="10" t="n">
+      <c r="O18" s="9" t="n">
         <f aca="false">SUM(N18,M18,L18,K18,J18,I18,H18,G18)</f>
         <v>1</v>
       </c>
@@ -8523,7 +8907,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -8548,7 +8932,7 @@
       <c r="L19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O19" s="10" t="n">
+      <c r="O19" s="9" t="n">
         <f aca="false">SUM(N19,M19,L19,K19,J19,I19,H19,G19)</f>
         <v>25</v>
       </c>
@@ -8558,7 +8942,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">SUM(C20:F20)</f>
@@ -8571,7 +8955,7 @@
       <c r="J20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O20" s="10" t="n">
+      <c r="O20" s="9" t="n">
         <f aca="false">SUM(N20,M20,L20,K20,J20,I20,H20,G20)</f>
         <v>2</v>
       </c>
@@ -8581,7 +8965,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -8600,7 +8984,7 @@
       <c r="J21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O21" s="10" t="n">
+      <c r="O21" s="9" t="n">
         <f aca="false">SUM(N21,M21,L21,K21,J21,I21,H21,G21)</f>
         <v>8</v>
       </c>
@@ -8610,7 +8994,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -8626,7 +9010,7 @@
         <f aca="false">G22+H22</f>
         <v>5</v>
       </c>
-      <c r="O22" s="10" t="n">
+      <c r="O22" s="9" t="n">
         <f aca="false">SUM(N22,M22,L22,K22,J22,I22,H22,G22)</f>
         <v>10</v>
       </c>
@@ -8636,7 +9020,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -8658,7 +9042,7 @@
       <c r="N23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="10" t="n">
+      <c r="O23" s="9" t="n">
         <f aca="false">SUM(N23,M23,L23,K23,J23,I23,H23,G23)</f>
         <v>20</v>
       </c>
@@ -8668,7 +9052,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -8699,7 +9083,7 @@
       <c r="L24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O24" s="10" t="n">
+      <c r="O24" s="9" t="n">
         <f aca="false">SUM(N24,M24,L24,K24,J24,I24,H24,G24)</f>
         <v>97</v>
       </c>
@@ -8709,7 +9093,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -8746,7 +9130,7 @@
       <c r="N25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="10" t="n">
+      <c r="O25" s="9" t="n">
         <f aca="false">SUM(N25,M25,L25,K25,J25,I25,H25,G25)</f>
         <v>103</v>
       </c>
@@ -8756,7 +9140,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -8778,7 +9162,7 @@
       <c r="L26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O26" s="10" t="n">
+      <c r="O26" s="9" t="n">
         <f aca="false">SUM(N26,M26,L26,K26,J26,I26,H26,G26)</f>
         <v>14</v>
       </c>
@@ -8788,7 +9172,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -8797,7 +9181,7 @@
         <f aca="false">G27+H27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="10" t="n">
+      <c r="O27" s="9" t="n">
         <f aca="false">SUM(N27,M27,L27,K27,J27,I27,H27,G27)</f>
         <v>0</v>
       </c>
@@ -8820,11 +9204,11 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
@@ -8833,25 +9217,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.33</v>
@@ -8882,7 +9266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -8896,7 +9280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -8910,7 +9294,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -8924,16 +9308,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -8947,16 +9331,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.33</v>
@@ -8970,7 +9354,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -8984,7 +9368,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -8998,16 +9382,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7.67</v>
@@ -9026,13 +9410,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7.67</v>
@@ -9043,16 +9427,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0.33</v>
@@ -9066,7 +9450,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -9080,16 +9464,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.8</v>
@@ -9103,7 +9487,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -9117,16 +9501,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6.8</v>
@@ -9140,7 +9524,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -9154,16 +9538,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7.93</v>
@@ -9182,13 +9566,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4.8</v>
@@ -9199,7 +9583,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -9213,16 +9597,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -9236,16 +9620,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7.67</v>
@@ -9259,7 +9643,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -9273,16 +9657,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -9296,16 +9680,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8.67</v>
@@ -9319,16 +9703,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8.33</v>
@@ -9342,16 +9726,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -9370,13 +9754,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8.67</v>
@@ -9384,13 +9768,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8.13</v>
@@ -9398,13 +9782,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>8.13</v>
@@ -9412,13 +9796,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>6.33</v>
@@ -9429,16 +9813,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -9452,7 +9836,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -9463,7 +9847,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">COUNTIF(I2:I33,"&gt;0")</f>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="288">
   <si>
     <t xml:space="preserve">totales</t>
   </si>
@@ -371,22 +371,40 @@
     <t xml:space="preserve">promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">compara dor</t>
+    <t xml:space="preserve">comparador</t>
   </si>
   <si>
     <t xml:space="preserve">circuito andando</t>
   </si>
   <si>
+    <t xml:space="preserve">Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-arinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">falta circuito</t>
   </si>
   <si>
+    <t xml:space="preserve">G 2 </t>
+  </si>
+  <si>
     <t xml:space="preserve">mal el circuito</t>
   </si>
   <si>
+    <t xml:space="preserve">G 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">circuito no funciona</t>
   </si>
   <si>
     <t xml:space="preserve">falta ldr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
   </si>
   <si>
     <t xml:space="preserve">presentar carpeta</t>
@@ -1146,21 +1164,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="10.95"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="7" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="7" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,6 +1278,9 @@
       <c r="X2" s="2" t="n">
         <v>45903</v>
       </c>
+      <c r="Y2" s="2" t="n">
+        <v>45910</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1330,6 +1351,9 @@
       <c r="X3" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y3" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1400,6 +1424,9 @@
       <c r="X4" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1470,6 +1497,9 @@
       <c r="X5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1543,6 +1573,9 @@
       <c r="X6" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y6" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1616,6 +1649,9 @@
       <c r="X7" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y7" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1689,6 +1725,9 @@
       <c r="X8" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1759,6 +1798,9 @@
       <c r="X9" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y9" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1829,6 +1871,9 @@
       <c r="X10" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y10" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1899,6 +1944,9 @@
       <c r="X11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y11" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1969,6 +2017,9 @@
       <c r="X12" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y12" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2039,6 +2090,9 @@
       <c r="X13" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y13" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2109,6 +2163,9 @@
       <c r="X14" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y14" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2179,6 +2236,9 @@
       <c r="X15" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y15" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2249,6 +2309,9 @@
       <c r="X16" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y16" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2319,6 +2382,9 @@
       <c r="X17" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y17" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2389,6 +2455,9 @@
       <c r="X18" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y18" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2459,6 +2528,9 @@
       <c r="X19" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y19" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2529,6 +2601,9 @@
       <c r="X20" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y20" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2599,6 +2674,9 @@
       <c r="X21" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y21" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2669,6 +2747,9 @@
       <c r="X22" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y22" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2739,6 +2820,9 @@
       <c r="X23" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y23" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2809,6 +2893,9 @@
       <c r="X24" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y24" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -2879,6 +2966,9 @@
       <c r="X25" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y25" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -2949,6 +3039,9 @@
       <c r="X26" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y26" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -3019,6 +3112,9 @@
       <c r="X27" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y27" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -3087,6 +3183,9 @@
         <v>14</v>
       </c>
       <c r="X28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y28" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3137,6 +3236,10 @@
       </c>
       <c r="X29" s="0" t="n">
         <f aca="false">COUNTIF(X3:X28,"P")</f>
+        <v>24</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y28,"P")</f>
         <v>24</v>
       </c>
     </row>
@@ -3158,11 +3261,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
@@ -3177,19 +3280,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,7 +3379,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -3299,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3324,7 +3427,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6</v>
@@ -3386,7 +3489,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3465,7 +3568,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3490,7 +3593,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
@@ -3504,7 +3607,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3518,7 +3621,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3538,7 +3641,7 @@
         <v>65</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3575,7 +3678,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3640,7 +3743,7 @@
         <v>83</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>9</v>
@@ -3663,7 +3766,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -3702,7 +3805,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">COUNTIF(I2:I31,"&gt;0")</f>
@@ -3727,11 +3830,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.19"/>
@@ -3745,10 +3848,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,7 +3868,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>3.5</v>
@@ -3785,7 +3888,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3.5</v>
@@ -3805,7 +3908,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.25</v>
@@ -3825,7 +3928,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2.25</v>
@@ -3845,7 +3948,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.75</v>
@@ -3865,7 +3968,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -3885,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8.5</v>
@@ -3905,7 +4008,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6.75</v>
@@ -3925,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -3945,7 +4048,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>3.25</v>
@@ -3965,7 +4068,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.5</v>
@@ -3985,7 +4088,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8.75</v>
@@ -4005,7 +4108,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4.5</v>
@@ -4025,7 +4128,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -4045,7 +4148,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3.25</v>
@@ -4065,7 +4168,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>5.25</v>
@@ -4085,7 +4188,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -4105,7 +4208,7 @@
         <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4125,7 +4228,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5.5</v>
@@ -4145,7 +4248,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.5</v>
@@ -4165,7 +4268,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.25</v>
@@ -4185,7 +4288,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>7.75</v>
@@ -4205,7 +4308,7 @@
         <v>83</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8.75</v>
@@ -4225,7 +4328,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9.5</v>
@@ -4245,7 +4348,7 @@
         <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -4278,13 +4381,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:W35"/>
+  <dimension ref="A9:Y35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -4295,6 +4398,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="12" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.26"/>
   </cols>
   <sheetData>
@@ -4368,6 +4472,12 @@
       <c r="W9" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="X9" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -4485,6 +4595,12 @@
       <c r="V11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="X11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -4600,7 +4716,13 @@
         <v>8</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,6 +4778,12 @@
       <c r="V14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="X14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -4765,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,6 +5013,12 @@
       <c r="V18" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="X18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -5056,6 +5190,12 @@
       <c r="V21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="X21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -5114,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,7 +5311,13 @@
         <v>8</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5543,13 @@
         <v>9</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,6 +5656,12 @@
       <c r="V29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="X29" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -5559,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,6 +5770,12 @@
       <c r="V31" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="X31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -5771,6 +5935,12 @@
       </c>
       <c r="V34" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,11 +6037,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -5884,19 +6054,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,7 +6080,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -5941,7 +6111,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -5961,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -5981,7 +6151,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -6012,7 +6182,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -6032,7 +6202,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -6052,7 +6222,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -6072,7 +6242,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -6092,7 +6262,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -6123,7 +6293,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -6143,7 +6313,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -6163,7 +6333,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -6183,7 +6353,7 @@
         <v>62</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -6203,7 +6373,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -6223,7 +6393,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -6243,7 +6413,7 @@
         <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -6268,7 +6438,7 @@
         <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -6296,7 +6466,7 @@
         <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -6321,7 +6491,7 @@
         <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -6335,7 +6505,7 @@
         <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -6349,7 +6519,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -6366,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -6386,7 +6556,7 @@
         <v>83</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -6406,7 +6576,7 @@
         <v>86</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -6431,7 +6601,7 @@
         <v>86</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
@@ -6446,7 +6616,7 @@
         <v>86</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -6463,7 +6633,7 @@
         <v>89</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -6483,7 +6653,7 @@
         <v>92</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -6511,11 +6681,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -6526,19 +6696,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,7 +6719,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -6577,7 +6747,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -6599,7 +6769,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -6613,7 +6783,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -6630,7 +6800,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -6647,7 +6817,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -6664,7 +6834,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -6692,7 +6862,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -6714,7 +6884,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -6725,7 +6895,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -6736,7 +6906,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -6747,7 +6917,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -6761,7 +6931,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -6778,7 +6948,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -6795,7 +6965,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -6817,7 +6987,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -6831,7 +7001,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>10</v>
@@ -6848,7 +7018,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10</v>
@@ -6870,7 +7040,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
@@ -6881,7 +7051,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -6892,7 +7062,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -6906,7 +7076,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8</v>
@@ -6934,7 +7104,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -6951,7 +7121,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -6968,7 +7138,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>10</v>
@@ -6996,7 +7166,7 @@
         <v>78</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>8</v>
@@ -7013,7 +7183,7 @@
         <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10</v>
@@ -7030,7 +7200,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
@@ -7047,7 +7217,7 @@
         <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10</v>
@@ -7069,7 +7239,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>10</v>
@@ -7080,7 +7250,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>9</v>
@@ -7091,7 +7261,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>9</v>
@@ -7102,7 +7272,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9</v>
@@ -7113,7 +7283,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>9</v>
@@ -7124,7 +7294,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>8</v>
@@ -7138,7 +7308,7 @@
         <v>90</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10</v>
@@ -7184,11 +7354,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -7200,19 +7370,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,7 +7393,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -7262,7 +7432,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -7279,7 +7449,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -7296,7 +7466,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
@@ -7318,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>9</v>
@@ -7329,7 +7499,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -7340,7 +7510,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -7351,7 +7521,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -7362,7 +7532,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -7373,7 +7543,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -7384,7 +7554,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -7395,7 +7565,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -7409,7 +7579,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -7437,7 +7607,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>9</v>
@@ -7454,7 +7624,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -7476,7 +7646,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>6</v>
@@ -7487,7 +7657,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -7498,7 +7668,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
@@ -7509,7 +7679,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -7520,7 +7690,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -7534,7 +7704,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>9</v>
@@ -7556,7 +7726,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>6</v>
@@ -7570,7 +7740,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -7587,7 +7757,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -7609,7 +7779,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -7620,7 +7790,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>6</v>
@@ -7631,7 +7801,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>6</v>
@@ -7645,7 +7815,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>5</v>
@@ -7667,7 +7837,7 @@
         <v>57</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
@@ -7678,7 +7848,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -7689,7 +7859,7 @@
         <v>57</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -7714,7 +7884,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>8</v>
@@ -7736,7 +7906,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>8</v>
@@ -7747,7 +7917,7 @@
         <v>63</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>7</v>
@@ -7758,7 +7928,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -7772,7 +7942,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>9</v>
@@ -7789,7 +7959,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -7806,7 +7976,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -7834,7 +8004,7 @@
         <v>78</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>7</v>
@@ -7851,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>9</v>
@@ -7873,7 +8043,7 @@
         <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -7887,7 +8057,7 @@
         <v>84</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
@@ -7904,7 +8074,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10</v>
@@ -7921,7 +8091,7 @@
         <v>90</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>7</v>
@@ -7938,7 +8108,7 @@
         <v>93</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -7968,11 +8138,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7984,22 +8154,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8007,10 +8177,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -8024,10 +8194,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -8049,10 +8219,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -8063,10 +8233,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -8077,10 +8247,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.75</v>
@@ -8091,10 +8261,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -8105,10 +8275,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.5</v>
@@ -8122,10 +8292,10 @@
         <v>63</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -8147,10 +8317,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8.75</v>
@@ -8161,10 +8331,10 @@
         <v>63</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.75</v>
@@ -8175,10 +8345,10 @@
         <v>63</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1.25</v>
@@ -8202,11 +8372,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8219,22 +8389,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8242,10 +8412,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -8259,10 +8429,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -8284,10 +8454,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -8298,10 +8468,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -8312,10 +8482,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8.75</v>
@@ -8342,11 +8512,11 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.5"/>
@@ -8374,13 +8544,13 @@
         <v>45770</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J1" s="2" t="n">
         <v>45777</v>
@@ -9204,11 +9374,11 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
@@ -9223,19 +9393,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>112</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9252,7 +9422,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.33</v>
@@ -9317,7 +9487,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -9340,7 +9510,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.33</v>
@@ -9391,7 +9561,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7.67</v>
@@ -9416,7 +9586,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7.67</v>
@@ -9436,7 +9606,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0.33</v>
@@ -9473,7 +9643,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.8</v>
@@ -9510,7 +9680,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6.8</v>
@@ -9547,7 +9717,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7.93</v>
@@ -9572,7 +9742,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4.8</v>
@@ -9606,7 +9776,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -9629,7 +9799,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7.67</v>
@@ -9666,7 +9836,7 @@
         <v>77</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -9689,7 +9859,7 @@
         <v>80</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8.67</v>
@@ -9712,7 +9882,7 @@
         <v>83</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8.33</v>
@@ -9735,7 +9905,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -9760,7 +9930,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8.67</v>
@@ -9774,7 +9944,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8.13</v>
@@ -9788,7 +9958,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>8.13</v>
@@ -9802,7 +9972,7 @@
         <v>86</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>6.33</v>
@@ -9822,7 +9992,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -9847,7 +10017,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">COUNTIF(I2:I33,"&gt;0")</f>

--- a/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
+++ b/inasistencias-6A-Electronica/Alumnos-6A-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="304">
   <si>
     <t xml:space="preserve">totales</t>
   </si>
@@ -98,6 +98,9 @@
     <t xml:space="preserve">48373431@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Ensayo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julian Gabriel</t>
   </si>
   <si>
@@ -371,7 +374,10 @@
     <t xml:space="preserve">promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">comparador</t>
+    <t xml:space="preserve">promedio muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-comparador</t>
   </si>
   <si>
     <t xml:space="preserve">circuito andando</t>
@@ -380,24 +386,60 @@
     <t xml:space="preserve">Grupo</t>
   </si>
   <si>
-    <t xml:space="preserve">8-arinc</t>
+    <t xml:space="preserve">7-puente de Wien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-puente de Wien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-tx-arinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-localiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin entrega</t>
   </si>
   <si>
     <t xml:space="preserve">G 2</t>
   </si>
   <si>
+    <t xml:space="preserve">falta cto de 400 hz y simulacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">falta circuito</t>
   </si>
   <si>
+    <t xml:space="preserve">faltan las R2, R4, los capacitores y simulacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">G 2 </t>
   </si>
   <si>
     <t xml:space="preserve">mal el circuito</t>
   </si>
   <si>
+    <t xml:space="preserve">hasta no ver simulacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta la simulacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">G 1</t>
   </si>
   <si>
+    <t xml:space="preserve">G 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta simulacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">circuito no funciona</t>
   </si>
   <si>
@@ -405,6 +447,12 @@
   </si>
   <si>
     <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10/2025, correccion</t>
   </si>
   <si>
     <t xml:space="preserve">presentar carpeta</t>
@@ -903,8 +951,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -930,7 +978,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +995,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -997,7 +1051,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1018,6 +1072,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1030,11 +1088,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1137,7 +1199,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF8BC34A"/>
@@ -1164,13 +1226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE21" activeCellId="0" sqref="AE21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
@@ -1281,6 +1343,21 @@
       <c r="Y2" s="2" t="n">
         <v>45910</v>
       </c>
+      <c r="Z2" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>45938</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1354,6 +1431,18 @@
       <c r="Y3" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1427,6 +1516,18 @@
       <c r="Y4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1500,25 +1601,40 @@
       <c r="Y5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>14</v>
@@ -1576,19 +1692,34 @@
       <c r="Y6" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.583333333333333</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>14</v>
@@ -1615,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>14</v>
@@ -1652,28 +1783,40 @@
       <c r="Y7" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>14</v>
@@ -1728,19 +1871,34 @@
       <c r="Y8" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Z8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.583333333333333</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>14</v>
@@ -1801,19 +1959,31 @@
       <c r="Y9" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>14</v>
@@ -1874,19 +2044,31 @@
       <c r="Y10" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>14</v>
@@ -1947,19 +2129,31 @@
       <c r="Y11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>14</v>
@@ -2020,19 +2214,31 @@
       <c r="Y12" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>14</v>
@@ -2093,19 +2299,31 @@
       <c r="Y13" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>14</v>
@@ -2166,19 +2384,31 @@
       <c r="Y14" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Z14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>14</v>
@@ -2239,19 +2469,31 @@
       <c r="Y15" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>14</v>
@@ -2312,19 +2554,31 @@
       <c r="Y16" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>14</v>
@@ -2385,19 +2639,31 @@
       <c r="Y17" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>14</v>
@@ -2458,19 +2724,31 @@
       <c r="Y18" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>14</v>
@@ -2531,19 +2809,31 @@
       <c r="Y19" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>15</v>
@@ -2604,19 +2894,34 @@
       <c r="Y20" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>0.583333333333333</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>14</v>
@@ -2677,19 +2982,31 @@
       <c r="Y21" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>14</v>
@@ -2750,19 +3067,31 @@
       <c r="Y22" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>14</v>
@@ -2823,19 +3152,31 @@
       <c r="Y23" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>14</v>
@@ -2896,19 +3237,31 @@
       <c r="Y24" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>14</v>
@@ -2969,19 +3322,31 @@
       <c r="Y25" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>14</v>
@@ -3042,19 +3407,31 @@
       <c r="Y26" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD26" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>14</v>
@@ -3115,19 +3492,31 @@
       <c r="Y27" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Z27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>14</v>
@@ -3187,6 +3576,18 @@
       </c>
       <c r="Y28" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD28" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,6 +3642,22 @@
       <c r="Y29" s="0" t="n">
         <f aca="false">COUNTIF(Y3:Y28,"P")</f>
         <v>24</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z28,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <f aca="false">COUNTIF(AB3:AB28,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC28,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD28,"P")</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3265,7 +3682,7 @@
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
@@ -3280,19 +3697,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -3356,7 +3773,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3370,16 +3787,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -3393,16 +3810,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3421,13 +3838,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6</v>
@@ -3438,7 +3855,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -3452,7 +3869,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3466,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3480,16 +3897,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3503,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3517,7 +3934,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -3531,7 +3948,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3545,7 +3962,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3559,16 +3976,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3587,13 +4004,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
@@ -3601,13 +4018,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3615,13 +4032,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3632,16 +4049,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3655,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3669,16 +4086,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3692,7 +4109,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -3706,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
@@ -3720,7 +4137,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -3734,16 +4151,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="E28" s="0" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>9</v>
@@ -3757,16 +4174,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -3780,7 +4197,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -3794,7 +4211,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -3805,7 +4222,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">COUNTIF(I2:I31,"&gt;0")</f>
@@ -3834,7 +4251,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.19"/>
@@ -3848,10 +4265,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>3.5</v>
@@ -3888,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3.5</v>
@@ -3908,7 +4325,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.25</v>
@@ -3919,16 +4336,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2.25</v>
@@ -3939,16 +4356,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.75</v>
@@ -3959,16 +4376,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -3979,16 +4396,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8.5</v>
@@ -3999,16 +4416,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6.75</v>
@@ -4019,16 +4436,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -4039,16 +4456,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>3.25</v>
@@ -4059,16 +4476,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.5</v>
@@ -4079,16 +4496,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8.75</v>
@@ -4099,16 +4516,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4.5</v>
@@ -4119,16 +4536,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -4139,16 +4556,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3.25</v>
@@ -4159,16 +4576,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>5.25</v>
@@ -4179,16 +4596,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -4199,16 +4616,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4219,16 +4636,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5.5</v>
@@ -4239,16 +4656,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.5</v>
@@ -4259,16 +4676,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.25</v>
@@ -4279,16 +4696,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>7.75</v>
@@ -4299,16 +4716,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8.75</v>
@@ -4319,16 +4736,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9.5</v>
@@ -4339,16 +4756,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -4359,7 +4776,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -4381,102 +4798,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:Y35"/>
+  <dimension ref="A9:AD35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U27" activeCellId="0" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="12" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="12" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="29.29"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="R9" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="U9" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="V9" s="2" t="n">
         <v>45875</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="W9" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,24 +4935,24 @@
         <f aca="false">ROUND(I10/2+G10,0)</f>
         <v>9</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>9</v>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="M10" s="5" t="str">
         <f aca="false">IF(L10&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>45849</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R10" s="0" t="n">
@@ -4528,12 +4961,25 @@
       <c r="S10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="T10" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S10,R10,P10,N10,L10),0)</f>
         <v>7</v>
       </c>
-      <c r="V10" s="0" t="n">
-        <v>1</v>
+      <c r="U10" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,J10,N10,P10,R10,S10),0)</f>
+        <v>8</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,13 +4992,13 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -4565,11 +5011,11 @@
         <f aca="false">I11/2+G11</f>
         <v>3</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="4" t="str">
+      <c r="M11" s="5" t="str">
         <f aca="false">IF(L11&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -4585,20 +5031,30 @@
       <c r="S11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S11,R11,P11,N11,L11),0)</f>
         <v>3</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,J11,N11,P11,R11,S11),0)</f>
+        <v>3</v>
+      </c>
+      <c r="V11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y11" s="0" t="n">
+      <c r="W11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC11" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4625,24 +5081,24 @@
         <f aca="false">I12/2+G12</f>
         <v>17.5</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>10</v>
       </c>
-      <c r="M12" s="4" t="str">
+      <c r="M12" s="5" t="str">
         <f aca="false">IF(L12&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>45849</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R12" s="0" t="n">
@@ -4651,20 +5107,30 @@
       <c r="S12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S12,R12,P12,N12,L12),0)</f>
         <v>7</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U12" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,J12,N12,P12,R12,S12),0)</f>
+        <v>8</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -4682,24 +5148,24 @@
         <f aca="false">I13/2+G13</f>
         <v>14.5</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>11</v>
       </c>
-      <c r="M13" s="4" t="str">
+      <c r="M13" s="5" t="str">
         <f aca="false">IF(L13&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>45849</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R13" s="0" t="n">
@@ -4708,29 +5174,39 @@
       <c r="S13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S13,R13,P13,N13,L13),0)</f>
         <v>7</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>118</v>
+      <c r="U13" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,J13,N13,P13,R13,S13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
@@ -4748,11 +5224,11 @@
         <f aca="false">I14/2+G14</f>
         <v>13</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>10</v>
       </c>
-      <c r="M14" s="4" t="str">
+      <c r="M14" s="5" t="str">
         <f aca="false">IF(L14&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4768,20 +5244,30 @@
       <c r="S14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S14,R14,P14,N14,L14),0)</f>
         <v>6</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="U14" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,J14,N14,P14,R14,S14),0)</f>
+        <v>7</v>
+      </c>
+      <c r="V14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y14" s="0" t="n">
+      <c r="W14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC14" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4790,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -4808,11 +5294,11 @@
         <f aca="false">I15/2+G15</f>
         <v>7</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="4" t="str">
+      <c r="M15" s="5" t="str">
         <f aca="false">IF(L15&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -4828,14 +5314,24 @@
       <c r="S15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S15,R15,P15,N15,L15),0)</f>
         <v>6</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="U15" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,J15,N15,P15,R15,S15),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,7 +5340,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -4862,18 +5358,18 @@
         <f aca="false">I16/2+G16</f>
         <v>15</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>12</v>
       </c>
-      <c r="M16" s="4" t="str">
+      <c r="M16" s="5" t="str">
         <f aca="false">IF(L16&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="P16" s="0" t="n">
@@ -4885,15 +5381,28 @@
       <c r="S16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="T16" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S16,R16,P16,N16,L16),0)</f>
         <v>9</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="U16" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,E16,J16,N16,P16,R16,S16),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W16" s="0" t="s">
-        <v>120</v>
+      <c r="X16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,18 +5410,18 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="8" t="n">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -4925,24 +5434,24 @@
         <f aca="false">I17/2+G17</f>
         <v>14</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>10</v>
       </c>
-      <c r="M17" s="4" t="str">
+      <c r="M17" s="5" t="str">
         <f aca="false">IF(L17&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" s="6" t="n">
+      <c r="N17" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" s="7" t="n">
         <v>45850</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="7" t="n">
         <v>45850</v>
       </c>
       <c r="R17" s="0" t="n">
@@ -4951,12 +5460,25 @@
       <c r="S17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="T17" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S17,R17,P17,N17,L17),0)</f>
         <v>9</v>
       </c>
-      <c r="V17" s="0" t="n">
-        <v>1</v>
+      <c r="U17" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C17,E17,J17,N17,P17,R17,S17),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +5486,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9</v>
@@ -4982,11 +5504,11 @@
         <f aca="false">I18/2+G18</f>
         <v>26.5</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>15</v>
       </c>
-      <c r="M18" s="4" t="str">
+      <c r="M18" s="5" t="str">
         <f aca="false">IF(L18&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -4994,10 +5516,10 @@
         <f aca="false">ROUND(MAX(M18,L18),0)</f>
         <v>15</v>
       </c>
-      <c r="P18" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="6" t="n">
+      <c r="P18" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="7" t="n">
         <v>45850</v>
       </c>
       <c r="R18" s="0" t="n">
@@ -5006,17 +5528,24 @@
       <c r="S18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S18,R18,P18,N18,L18),0)</f>
         <v>12</v>
       </c>
-      <c r="V18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y18" s="0" t="n">
+      <c r="U18" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C18,E18,J18,N18,P18,R18,S18),0)</f>
+        <v>13</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5025,7 +5554,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5</v>
@@ -5043,24 +5572,24 @@
         <f aca="false">I19/2+G19</f>
         <v>13</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>8</v>
       </c>
-      <c r="M19" s="4" t="str">
+      <c r="M19" s="5" t="str">
         <f aca="false">IF(L19&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>45849</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="7" t="n">
         <v>45877</v>
       </c>
       <c r="R19" s="0" t="n">
@@ -5069,14 +5598,24 @@
       <c r="S19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S19,R19,P19,N19,L19),0)</f>
         <v>6</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="U19" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,E19,J19,N19,P19,R19,S19),0)</f>
+        <v>7</v>
+      </c>
+      <c r="V19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,7 +5624,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>9</v>
@@ -5103,11 +5642,11 @@
         <f aca="false">I20/2+G20</f>
         <v>20</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>13</v>
       </c>
-      <c r="M20" s="4" t="str">
+      <c r="M20" s="5" t="str">
         <f aca="false">IF(L20&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5123,12 +5662,25 @@
       <c r="S20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S20,R20,P20,N20,L20),0)</f>
         <v>8</v>
       </c>
-      <c r="V20" s="0" t="n">
-        <v>1</v>
+      <c r="U20" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C20,E20,J20,N20,P20,R20,S20),0)</f>
+        <v>10</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,15 +5688,15 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="8" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -5160,21 +5712,21 @@
         <f aca="false">I21/2+G21</f>
         <v>8</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>8</v>
       </c>
-      <c r="M21" s="4" t="str">
+      <c r="M21" s="5" t="str">
         <f aca="false">IF(L21&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>8.8</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="Q21" s="6" t="n">
+      <c r="Q21" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R21" s="0" t="n">
@@ -5183,17 +5735,27 @@
       <c r="S21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="T21" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S21,R21,P21,N21,L21),0)</f>
         <v>8</v>
       </c>
-      <c r="V21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y21" s="0" t="n">
+      <c r="U21" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C21,E21,J21,N21,P21,R21,S21),0)</f>
+        <v>8</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC21" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5202,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -5220,24 +5782,24 @@
         <f aca="false">I22/2+G22</f>
         <v>50.5</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>23</v>
       </c>
-      <c r="M22" s="4" t="str">
+      <c r="M22" s="5" t="str">
         <f aca="false">IF(L22&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O22" s="6" t="n">
+      <c r="N22" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" s="7" t="n">
         <v>45850</v>
       </c>
-      <c r="P22" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="6" t="n">
+      <c r="P22" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="7" t="n">
         <v>45850</v>
       </c>
       <c r="R22" s="0" t="n">
@@ -5246,15 +5808,22 @@
       <c r="S22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T22" s="4" t="n">
+      <c r="T22" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S22,R22,P22,N22,L22),0)</f>
         <v>11</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="U22" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,E22,J22,N22,P22,R22,S22),0)</f>
+        <v>15</v>
+      </c>
+      <c r="W22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="W22" s="0" t="s">
-        <v>122</v>
+      <c r="X22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5831,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>10</v>
@@ -5283,11 +5852,11 @@
       <c r="K23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,J23,K23),0)</f>
         <v>16</v>
       </c>
-      <c r="M23" s="4" t="str">
+      <c r="M23" s="5" t="str">
         <f aca="false">IF(L23&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5303,20 +5872,24 @@
       <c r="S23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T23" s="4" t="n">
+      <c r="T23" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S23,R23,P23,N23,L23),0)</f>
         <v>8</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>123</v>
+      <c r="U23" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,J23,N23,P23,R23,S23),0)</f>
+        <v>11</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y23" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC23" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5325,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>8</v>
@@ -5333,7 +5906,7 @@
       <c r="E24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="8" t="n">
         <v>9</v>
       </c>
       <c r="H24" s="2" t="n">
@@ -5346,21 +5919,21 @@
         <f aca="false">I24/2+G24</f>
         <v>10.5</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>9</v>
       </c>
-      <c r="M24" s="4" t="str">
+      <c r="M24" s="5" t="str">
         <f aca="false">IF(L24&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" s="6" t="n">
+      <c r="Q24" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R24" s="0" t="n">
@@ -5369,15 +5942,22 @@
       <c r="S24" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T24" s="4" t="n">
+      <c r="T24" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S24,R24,P24,N24,L24),0)</f>
         <v>5</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="U24" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C24,E24,J24,N24,P24,R24,S24),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V24" s="0" t="n">
-        <v>1</v>
+      <c r="W24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,12 +5965,12 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="8" t="n">
         <v>8</v>
       </c>
       <c r="F25" s="2" t="n">
@@ -5406,11 +5986,11 @@
         <f aca="false">I25/2+G25</f>
         <v>8</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>9</v>
       </c>
-      <c r="M25" s="4" t="str">
+      <c r="M25" s="5" t="str">
         <f aca="false">IF(L25&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5427,12 +6007,19 @@
       <c r="S25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T25" s="4" t="n">
+      <c r="T25" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S25,R25,P25,N25,L25),0)</f>
         <v>8</v>
       </c>
-      <c r="V25" s="0" t="n">
-        <v>1</v>
+      <c r="U25" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C25,E25,J25,N25,P25,R25,S25),0)</f>
+        <v>8</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +6027,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>10</v>
@@ -5458,11 +6045,11 @@
         <f aca="false">I26/2+G26</f>
         <v>9.5</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>9</v>
       </c>
-      <c r="M26" s="4" t="str">
+      <c r="M26" s="5" t="str">
         <f aca="false">IF(L26&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5478,12 +6065,19 @@
       <c r="S26" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T26" s="4" t="n">
+      <c r="T26" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S26,R26,P26,N26,L26),0)</f>
         <v>7</v>
       </c>
-      <c r="V26" s="0" t="n">
-        <v>1</v>
+      <c r="U26" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C26,E26,J26,N26,P26,R26,S26),0)</f>
+        <v>8</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
@@ -5499,24 +6093,27 @@
       <c r="E27" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>5</v>
+      <c r="G27" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">I27/2+G27</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27,K27),0)</f>
-        <v>11</v>
-      </c>
-      <c r="M27" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="M27" s="5" t="str">
         <f aca="false">IF(L27&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5532,23 +6129,27 @@
       <c r="S27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="T27" s="4" t="n">
+      <c r="T27" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S27,R27,P27,N27,L27),0)</f>
-        <v>6</v>
-      </c>
-      <c r="U27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C27,E27,J27,N27,P27,R27,S27),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V27" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>125</v>
+      <c r="W27" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y27" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC27" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5557,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>8</v>
@@ -5575,15 +6176,15 @@
         <f aca="false">I28/2+G28</f>
         <v>11</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C28,E28,J28),0)</f>
         <v>10</v>
       </c>
-      <c r="M28" s="4" t="str">
+      <c r="M28" s="5" t="str">
         <f aca="false">IF(L28&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
-      <c r="N28" s="5" t="n">
+      <c r="N28" s="6" t="n">
         <v>10</v>
       </c>
       <c r="P28" s="0" t="n">
@@ -5595,12 +6196,19 @@
       <c r="S28" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T28" s="4" t="n">
+      <c r="T28" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S28,R28,P28,N28,L28),0)</f>
         <v>9</v>
       </c>
-      <c r="V28" s="0" t="n">
-        <v>1</v>
+      <c r="U28" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C28,E28,J28,N28,P28,R28,S28),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +6216,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -5626,11 +6234,11 @@
         <f aca="false">I29/2+G29</f>
         <v>5</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C29,E29,J29),0)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="4" t="str">
+      <c r="M29" s="5" t="str">
         <f aca="false">IF(L29&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -5646,20 +6254,24 @@
       <c r="S29" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T29" s="4" t="n">
+      <c r="T29" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S29,R29,P29,N29,L29),0)</f>
         <v>3</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="U29" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C29,E29,J29,N29,P29,R29,S29),0)</f>
+        <v>3</v>
+      </c>
+      <c r="V29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y29" s="0" t="n">
+      <c r="W29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC29" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5668,7 +6280,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>9</v>
@@ -5686,21 +6298,21 @@
         <f aca="false">I30/2+G30</f>
         <v>12</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C30,E30,J30),0)</f>
         <v>10</v>
       </c>
-      <c r="M30" s="4" t="str">
+      <c r="M30" s="5" t="str">
         <f aca="false">IF(L30&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="P30" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="Q30" s="6" t="n">
+      <c r="Q30" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R30" s="0" t="n">
@@ -5709,15 +6321,22 @@
       <c r="S30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T30" s="4" t="n">
+      <c r="T30" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S30,R30,P30,N30,L30),0)</f>
         <v>8</v>
       </c>
-      <c r="V30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>126</v>
+      <c r="U30" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C30,E30,J30,N30,P30,R30,S30),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +6344,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>10</v>
@@ -5743,11 +6362,11 @@
         <f aca="false">I31/2+G31</f>
         <v>19</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C31,E31,J31),0)</f>
         <v>13</v>
       </c>
-      <c r="M31" s="4" t="str">
+      <c r="M31" s="5" t="str">
         <f aca="false">IF(L31&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5763,17 +6382,21 @@
       <c r="S31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T31" s="4" t="n">
+      <c r="T31" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S31,R31,P31,N31,L31),0)</f>
         <v>8</v>
       </c>
-      <c r="V31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y31" s="0" t="n">
+      <c r="U31" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C31,E31,J31,N31,P31,R31,S31),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC31" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5782,7 +6405,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>10</v>
@@ -5800,11 +6423,11 @@
         <f aca="false">I32/2+G32</f>
         <v>58.5</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C32,E32,J32),0)</f>
         <v>26</v>
       </c>
-      <c r="M32" s="4" t="str">
+      <c r="M32" s="5" t="str">
         <f aca="false">IF(L32&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5820,12 +6443,19 @@
       <c r="S32" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T32" s="4" t="n">
+      <c r="T32" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S32,R32,P32,N32,L32),0)</f>
         <v>12</v>
       </c>
-      <c r="V32" s="0" t="n">
-        <v>10</v>
+      <c r="U32" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C32,E32,J32,N32,P32,R32,S32),0)</f>
+        <v>16</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,7 +6463,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>9</v>
@@ -5854,11 +6484,11 @@
       <c r="K33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C33,E33,J33,K33),0)</f>
         <v>22</v>
       </c>
-      <c r="M33" s="4" t="str">
+      <c r="M33" s="5" t="str">
         <f aca="false">IF(L33&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
@@ -5875,12 +6505,19 @@
       <c r="S33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T33" s="4" t="n">
+      <c r="T33" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S33,R33,P33,N33,L33),0)</f>
         <v>11</v>
       </c>
-      <c r="V33" s="0" t="n">
-        <v>10</v>
+      <c r="U33" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C33,E33,J33,N33,P33,R33,S33),0)</f>
+        <v>16</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,7 +6525,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8</v>
@@ -5906,21 +6543,21 @@
         <f aca="false">I34/2+G34</f>
         <v>14</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C34,E34,J34),0)</f>
         <v>11</v>
       </c>
-      <c r="M34" s="4" t="str">
+      <c r="M34" s="5" t="str">
         <f aca="false">IF(L34&gt;6,"TEA","TEP")</f>
         <v>TEA</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P34" s="5" t="n">
+      <c r="P34" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="Q34" s="6" t="n">
+      <c r="Q34" s="7" t="n">
         <v>45849</v>
       </c>
       <c r="R34" s="0" t="n">
@@ -5929,17 +6566,21 @@
       <c r="S34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T34" s="4" t="n">
+      <c r="T34" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S34,R34,P34,N34,L34),0)</f>
         <v>9</v>
       </c>
-      <c r="V34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="X34" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y34" s="0" t="n">
+      <c r="U34" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C34,E34,J34,N34,P34,R34,S34),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC34" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5948,7 +6589,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>10</v>
@@ -5966,11 +6607,11 @@
         <f aca="false">I35/2+G35</f>
         <v>5</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C35,E35,J35),0)</f>
         <v>5</v>
       </c>
-      <c r="M35" s="4" t="str">
+      <c r="M35" s="5" t="str">
         <f aca="false">IF(L35&gt;6,"TEA","TEP")</f>
         <v>TEP</v>
       </c>
@@ -5986,15 +6627,22 @@
       <c r="S35" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="T35" s="4" t="n">
+      <c r="T35" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(S35,R35,P35,N35,L35),0)</f>
         <v>4</v>
       </c>
-      <c r="U35" s="0" t="s">
+      <c r="U35" s="0" t="n">
+        <f aca="false">ROUND(AVERAGE(C35,E35,J35,N35,P35,R35,S35),0)</f>
+        <v>5</v>
+      </c>
+      <c r="V35" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="V35" s="0" t="n">
-        <v>1</v>
+      <c r="W35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6041,7 +6689,7 @@
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
   </cols>
@@ -6054,19 +6702,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +6728,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9</v>
@@ -6111,7 +6759,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
@@ -6122,16 +6770,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -6142,16 +6790,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8</v>
@@ -6162,7 +6810,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -6173,16 +6821,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
@@ -6193,16 +6841,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
@@ -6213,16 +6861,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -6233,16 +6881,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -6253,16 +6901,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>9</v>
@@ -6273,7 +6921,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -6284,16 +6932,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>9</v>
@@ -6304,16 +6952,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>10</v>
@@ -6324,16 +6972,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>8</v>
@@ -6344,16 +6992,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
@@ -6364,16 +7012,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -6384,16 +7032,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -6404,16 +7052,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>10</v>
@@ -6432,13 +7080,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>6</v>
@@ -6446,7 +7094,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -6457,16 +7105,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>10</v>
@@ -6485,13 +7133,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>9</v>
@@ -6499,13 +7147,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>7</v>
@@ -6513,13 +7161,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -6527,16 +7175,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>10</v>
@@ -6547,16 +7195,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>10</v>
@@ -6567,16 +7215,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
@@ -6595,28 +7243,28 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
@@ -6624,16 +7272,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>8</v>
@@ -6644,16 +7292,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>10</v>
@@ -6685,7 +7333,7 @@
       <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -6696,19 +7344,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,7 +7367,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
@@ -6747,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4</v>
@@ -6769,7 +7417,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -6777,13 +7425,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -6794,13 +7442,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -6811,13 +7459,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -6828,13 +7476,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -6845,7 +7493,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -6856,13 +7504,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -6881,10 +7529,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>9</v>
@@ -6892,10 +7540,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -6903,10 +7551,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -6914,10 +7562,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -6925,13 +7573,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -6942,13 +7590,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -6959,13 +7607,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -6984,10 +7632,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -6995,13 +7643,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>10</v>
@@ -7012,13 +7660,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>10</v>
@@ -7037,10 +7685,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
@@ -7048,10 +7696,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -7059,10 +7707,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -7070,13 +7718,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>8</v>
@@ -7087,7 +7735,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -7098,13 +7746,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -7115,13 +7763,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -7132,13 +7780,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>10</v>
@@ -7149,7 +7797,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -7160,13 +7808,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>8</v>
@@ -7177,13 +7825,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>10</v>
@@ -7194,13 +7842,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
@@ -7211,13 +7859,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>10</v>
@@ -7236,10 +7884,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>10</v>
@@ -7247,10 +7895,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>9</v>
@@ -7258,10 +7906,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>9</v>
@@ -7269,10 +7917,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>9</v>
@@ -7280,10 +7928,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>9</v>
@@ -7291,10 +7939,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>8</v>
@@ -7302,13 +7950,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>10</v>
@@ -7319,7 +7967,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1</v>
@@ -7354,11 +8002,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -7370,19 +8018,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,7 +8041,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -7426,13 +8074,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7</v>
@@ -7443,13 +8091,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -7460,13 +8108,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
@@ -7485,10 +8133,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>9</v>
@@ -7496,10 +8144,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>7</v>
@@ -7507,10 +8155,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
@@ -7518,10 +8166,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -7529,10 +8177,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -7540,10 +8188,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>6</v>
@@ -7551,10 +8199,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -7562,10 +8210,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -7573,13 +8221,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -7590,7 +8238,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -7601,13 +8249,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>9</v>
@@ -7618,13 +8266,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -7643,10 +8291,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>6</v>
@@ -7654,10 +8302,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -7665,10 +8313,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
@@ -7676,10 +8324,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -7687,10 +8335,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -7698,13 +8346,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>9</v>
@@ -7723,10 +8371,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>6</v>
@@ -7734,13 +8382,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>8</v>
@@ -7751,13 +8399,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>9</v>
@@ -7776,10 +8424,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -7787,10 +8435,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>6</v>
@@ -7798,10 +8446,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>6</v>
@@ -7809,13 +8457,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>5</v>
@@ -7834,10 +8482,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
@@ -7845,10 +8493,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -7856,10 +8504,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -7867,7 +8515,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -7878,13 +8526,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>8</v>
@@ -7903,10 +8551,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>8</v>
@@ -7914,10 +8562,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>7</v>
@@ -7925,10 +8573,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -7936,13 +8584,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>9</v>
@@ -7953,13 +8601,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -7970,13 +8618,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -7987,7 +8635,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -7998,13 +8646,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>7</v>
@@ -8015,13 +8663,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>9</v>
@@ -8040,10 +8688,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -8051,13 +8699,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>10</v>
@@ -8068,13 +8716,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>10</v>
@@ -8085,13 +8733,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>7</v>
@@ -8102,13 +8750,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -8142,7 +8790,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8154,22 +8802,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,10 +8825,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -8191,13 +8839,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -8216,13 +8864,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -8230,13 +8878,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -8244,13 +8892,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.75</v>
@@ -8258,13 +8906,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -8272,13 +8920,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.5</v>
@@ -8289,13 +8937,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
@@ -8314,13 +8962,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8.75</v>
@@ -8328,13 +8976,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.75</v>
@@ -8342,13 +8990,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1.25</v>
@@ -8376,7 +9024,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8389,22 +9037,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,10 +9060,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.5</v>
@@ -8426,13 +9074,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8.75</v>
@@ -8451,13 +9099,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7.5</v>
@@ -8465,13 +9113,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -8479,13 +9127,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>8.75</v>
@@ -8516,7 +9164,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="3" style="0" width="9.5"/>
@@ -8526,7 +9174,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -8544,13 +9192,13 @@
         <v>45770</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="J1" s="2" t="n">
         <v>45777</v>
@@ -8568,7 +9216,7 @@
         <v>45840</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8594,7 +9242,7 @@
         <f aca="false">G2+H2</f>
         <v>2</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="11" t="n">
         <f aca="false">SUM(N2,M2,L2,K2,J2,I2,H2,G2)</f>
         <v>4</v>
       </c>
@@ -8614,7 +9262,7 @@
         <f aca="false">G3+H3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="11" t="n">
         <f aca="false">SUM(N3,M3,L3,K3,J3,I3,H3,G3)</f>
         <v>0</v>
       </c>
@@ -8646,7 +9294,7 @@
       <c r="J4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="11" t="n">
         <f aca="false">SUM(N4,M4,L4,K4,J4,I4,H4,G4)</f>
         <v>33</v>
       </c>
@@ -8656,7 +9304,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -8675,7 +9323,7 @@
       <c r="J5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="11" t="n">
         <f aca="false">SUM(N5,M5,L5,K5,J5,I5,H5,G5)</f>
         <v>15</v>
       </c>
@@ -8685,7 +9333,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -8701,7 +9349,7 @@
         <f aca="false">G6+H6</f>
         <v>4</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="11" t="n">
         <f aca="false">SUM(N6,M6,L6,K6,J6,I6,H6,G6)</f>
         <v>8</v>
       </c>
@@ -8711,7 +9359,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(C7:F7)</f>
@@ -8721,7 +9369,7 @@
         <f aca="false">G7+H7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="11" t="n">
         <f aca="false">SUM(N7,M7,L7,K7,J7,I7,H7,G7)</f>
         <v>0</v>
       </c>
@@ -8731,7 +9379,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>5</v>
@@ -8756,7 +9404,7 @@
       <c r="K8" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="11" t="n">
         <f aca="false">SUM(N8,M8,L8,K8,J8,I8,H8,G8)</f>
         <v>20</v>
       </c>
@@ -8766,7 +9414,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>6</v>
@@ -8779,7 +9427,7 @@
         <f aca="false">G9+H9</f>
         <v>6</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="11" t="n">
         <f aca="false">SUM(N9,M9,L9,K9,J9,I9,H9,G9)</f>
         <v>12</v>
       </c>
@@ -8789,7 +9437,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3</v>
@@ -8820,7 +9468,7 @@
       <c r="N10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="11" t="n">
         <f aca="false">SUM(N10,M10,L10,K10,J10,I10,H10,G10)</f>
         <v>35</v>
       </c>
@@ -8830,7 +9478,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -8855,7 +9503,7 @@
       <c r="N11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="11" t="n">
         <f aca="false">SUM(N11,M11,L11,K11,J11,I11,H11,G11)</f>
         <v>14</v>
       </c>
@@ -8865,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -8896,7 +9544,7 @@
       <c r="N12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="11" t="n">
         <f aca="false">SUM(N12,M12,L12,K12,J12,I12,H12,G12)</f>
         <v>24</v>
       </c>
@@ -8906,7 +9554,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">SUM(C13:F13)</f>
@@ -8916,7 +9564,7 @@
         <f aca="false">G13+H13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="11" t="n">
         <f aca="false">SUM(N13,M13,L13,K13,J13,I13,H13,G13)</f>
         <v>0</v>
       </c>
@@ -8926,7 +9574,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>9</v>
@@ -8951,7 +9599,7 @@
       <c r="J14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="11" t="n">
         <f aca="false">SUM(N14,M14,L14,K14,J14,I14,H14,G14)</f>
         <v>87</v>
       </c>
@@ -8961,7 +9609,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -8992,7 +9640,7 @@
       <c r="L15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="11" t="n">
         <f aca="false">SUM(N15,M15,L15,K15,J15,I15,H15,G15)</f>
         <v>62</v>
       </c>
@@ -9002,7 +9650,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -9018,7 +9666,7 @@
       <c r="L16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="O16" s="11" t="n">
         <f aca="false">SUM(N16,M16,L16,K16,J16,I16,H16,G16)</f>
         <v>3</v>
       </c>
@@ -9028,7 +9676,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -9041,7 +9689,7 @@
         <f aca="false">G17+H17</f>
         <v>1</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="11" t="n">
         <f aca="false">SUM(N17,M17,L17,K17,J17,I17,H17,G17)</f>
         <v>2</v>
       </c>
@@ -9051,7 +9699,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -9067,7 +9715,7 @@
       <c r="K18" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="O18" s="11" t="n">
         <f aca="false">SUM(N18,M18,L18,K18,J18,I18,H18,G18)</f>
         <v>1</v>
       </c>
@@ -9077,7 +9725,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -9102,7 +9750,7 @@
       <c r="L19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O19" s="9" t="n">
+      <c r="O19" s="11" t="n">
         <f aca="false">SUM(N19,M19,L19,K19,J19,I19,H19,G19)</f>
         <v>25</v>
       </c>
@@ -9112,7 +9760,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">SUM(C20:F20)</f>
@@ -9125,7 +9773,7 @@
       <c r="J20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O20" s="9" t="n">
+      <c r="O20" s="11" t="n">
         <f aca="false">SUM(N20,M20,L20,K20,J20,I20,H20,G20)</f>
         <v>2</v>
       </c>
@@ -9135,7 +9783,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -9154,7 +9802,7 @@
       <c r="J21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O21" s="9" t="n">
+      <c r="O21" s="11" t="n">
         <f aca="false">SUM(N21,M21,L21,K21,J21,I21,H21,G21)</f>
         <v>8</v>
       </c>
@@ -9164,7 +9812,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -9180,7 +9828,7 @@
         <f aca="false">G22+H22</f>
         <v>5</v>
       </c>
-      <c r="O22" s="9" t="n">
+      <c r="O22" s="11" t="n">
         <f aca="false">SUM(N22,M22,L22,K22,J22,I22,H22,G22)</f>
         <v>10</v>
       </c>
@@ -9190,7 +9838,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -9212,7 +9860,7 @@
       <c r="N23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="O23" s="11" t="n">
         <f aca="false">SUM(N23,M23,L23,K23,J23,I23,H23,G23)</f>
         <v>20</v>
       </c>
@@ -9222,7 +9870,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -9253,7 +9901,7 @@
       <c r="L24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O24" s="9" t="n">
+      <c r="O24" s="11" t="n">
         <f aca="false">SUM(N24,M24,L24,K24,J24,I24,H24,G24)</f>
         <v>97</v>
       </c>
@@ -9263,7 +9911,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -9300,7 +9948,7 @@
       <c r="N25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="11" t="n">
         <f aca="false">SUM(N25,M25,L25,K25,J25,I25,H25,G25)</f>
         <v>103</v>
       </c>
@@ -9310,7 +9958,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -9332,7 +9980,7 @@
       <c r="L26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="O26" s="11" t="n">
         <f aca="false">SUM(N26,M26,L26,K26,J26,I26,H26,G26)</f>
         <v>14</v>
       </c>
@@ -9342,7 +9990,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -9351,7 +9999,7 @@
         <f aca="false">G27+H27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="11" t="n">
         <f aca="false">SUM(N27,M27,L27,K27,J27,I27,H27,G27)</f>
         <v>0</v>
       </c>
@@ -9378,7 +10026,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
@@ -9393,19 +10041,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9422,7 +10070,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.33</v>
@@ -9464,7 +10112,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -9478,16 +10126,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -9501,16 +10149,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.33</v>
@@ -9524,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -9538,7 +10186,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -9552,16 +10200,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7.67</v>
@@ -9580,13 +10228,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7.67</v>
@@ -9597,16 +10245,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0.33</v>
@@ -9620,7 +10268,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -9634,16 +10282,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.8</v>
@@ -9657,7 +10305,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -9671,16 +10319,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6.8</v>
@@ -9694,7 +10342,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -9708,16 +10356,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7.93</v>
@@ -9736,13 +10384,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4.8</v>
@@ -9753,7 +10401,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -9767,16 +10415,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -9790,16 +10438,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7.67</v>
@@ -9813,7 +10461,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -9827,16 +10475,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -9850,16 +10498,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8.67</v>
@@ -9873,16 +10521,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8.33</v>
@@ -9896,16 +10544,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -9924,13 +10572,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E28" s="0" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8.67</v>
@@ -9938,13 +10586,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>8.13</v>
@@ -9952,13 +10600,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>8.13</v>
@@ -9966,13 +10614,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>6.33</v>
@@ -9983,16 +10631,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -10006,7 +10654,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -10017,7 +10665,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">COUNTIF(I2:I33,"&gt;0")</f>
